--- a/test.xlsx
+++ b/test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="291">
   <si>
     <t>Fixed</t>
   </si>
@@ -524,7 +524,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>395</t>
+    <t>5.0</t>
   </si>
   <si>
     <t>10,700</t>
@@ -3169,9 +3169,7 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="47"/>
-      </patternFill>
+      <patternFill patternType="solid"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -3209,10 +3207,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="875">
+  <cellXfs count="870">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="478" fillId="11" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" applyFill="true">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
       <alignment vertical="center" horizontal="center"/>
@@ -3324,52 +3322,52 @@
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="3" fontId="34" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="35" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="36" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="37" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="39" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="40" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="41" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="42" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="43" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="44" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="45" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="47" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="48" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="49" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true"/>
@@ -3394,1112 +3392,1103 @@
     <xf numFmtId="0" fontId="57" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="3" fontId="60" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="61" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="62" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="63" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="65" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="3" fontId="65" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="66" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="67" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="68" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="69" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="70" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="71" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="72" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="73" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="74" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="75" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="76" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="77" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="78" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="79" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="80" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="82" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="83" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="3" fontId="83" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="84" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="85" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="86" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="87" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="88" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="89" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="90" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="91" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="92" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="93" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="94" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="95" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="96" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
       <alignment vertical="center" horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="97" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
       <alignment vertical="center" horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="98" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="99" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="111" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="3" fontId="99" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="100" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="101" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="102" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="103" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="104" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="105" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="106" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="107" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="108" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="109" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="110" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="111" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="112" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="113" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
       <alignment vertical="center" horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="114" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
       <alignment vertical="center" horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="115" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="116" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="117" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="118" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="122" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="126" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="3" fontId="116" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="117" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="118" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="119" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="120" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="121" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="122" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="123" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="124" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="125" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="126" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="127" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="128" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="129" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
       <alignment vertical="center" horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="130" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="132" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="138" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="3" fontId="131" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="132" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="133" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="134" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="135" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="136" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="137" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="138" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="139" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="140" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="141" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="7" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="143" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="144" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="145" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="146" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="147" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="148" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="149" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="150" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="151" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="152" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="153" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="154" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="155" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="156" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="158" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
+    <xf numFmtId="3" fontId="143" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="144" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="145" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="146" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="147" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="148" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="149" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="150" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="151" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="152" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="153" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="154" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="155" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="156" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="157" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="158" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
       <alignment vertical="center" horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="159" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
       <alignment vertical="center" horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="160" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="161" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="162" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="163" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="164" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="165" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="166" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="3" fontId="161" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="162" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="163" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="164" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="165" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="166" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="167" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
       <alignment vertical="center" horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="168" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="169" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="170" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="171" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="172" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="173" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="174" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="175" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="3" fontId="169" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="170" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="171" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="172" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="173" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="174" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="175" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
       <alignment vertical="center" horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="176" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="177" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="178" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="179" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="180" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="181" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="182" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="183" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="3" fontId="177" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="178" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="179" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="180" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="181" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="182" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="183" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
       <alignment vertical="center" horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="184" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="185" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="186" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="187" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="188" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="189" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="190" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="191" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="3" fontId="185" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="186" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="187" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="188" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="189" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="190" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="191" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
       <alignment vertical="center" horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="192" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="193" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="194" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="195" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="196" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="197" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="3" fontId="193" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="194" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="195" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="196" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="197" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
       <alignment vertical="center" horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="198" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="199" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="200" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="201" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="202" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="203" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="204" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="205" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="3" fontId="199" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="200" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="201" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="202" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="203" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="204" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="205" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
       <alignment vertical="center" horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="206" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="207" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="208" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="209" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="211" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="212" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="213" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="3" fontId="207" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="208" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="209" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="210" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="211" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="212" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="213" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
       <alignment vertical="center" horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="214" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="215" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="216" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="217" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="218" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="219" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="3" fontId="215" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="216" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="217" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="218" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="219" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="220" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="221" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
       <alignment vertical="center" horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="222" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="223" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="224" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="225" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="226" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="227" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="228" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="229" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="230" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="231" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="232" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="233" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="234" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="235" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="3" fontId="223" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="224" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="225" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="226" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="227" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="228" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="229" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="230" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="231" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="232" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="233" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="234" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="235" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
       <alignment vertical="center" horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="236" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="237" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="239" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="240" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="241" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="242" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="243" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="244" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="245" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="246" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="247" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="248" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="249" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="3" fontId="237" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="238" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="239" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="240" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="241" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="242" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="243" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="244" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="245" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="246" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="247" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="248" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="249" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
       <alignment vertical="center" horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="250" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="251" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="252" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="253" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="255" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="256" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="257" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="258" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="259" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="260" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="261" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="262" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="3" fontId="251" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="252" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="253" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="254" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="255" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="256" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="257" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="258" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="259" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="260" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="261" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="262" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
       <alignment vertical="center" horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="263" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="264" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="265" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="266" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="267" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="268" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="270" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="271" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="272" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="273" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="274" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="275" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="3" fontId="264" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="265" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="266" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="267" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="268" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="269" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="270" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="271" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="272" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="273" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="274" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="275" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
       <alignment vertical="center" horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="277" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="278" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="279" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="280" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="281" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="282" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="283" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="284" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="285" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="286" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="287" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="288" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="3" fontId="277" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="278" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="279" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="280" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="281" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="282" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="283" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="284" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="285" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="286" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="287" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="288" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
       <alignment vertical="center" horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="291" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="292" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="293" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="294" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="295" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="296" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="297" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="298" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="299" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="300" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="301" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="302" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="3" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="291" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="292" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="293" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="294" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="295" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="296" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="297" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="298" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="299" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="300" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="301" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="302" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
       <alignment vertical="center" horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="303" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="304" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="305" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="307" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="308" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="309" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="310" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="311" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="312" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="313" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="314" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="315" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="316" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="3" fontId="304" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="305" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="307" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="308" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="309" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="310" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="311" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="312" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="313" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="314" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="315" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="316" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
       <alignment vertical="center" horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="317" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="318" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="319" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="320" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="321" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="324" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="325" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="326" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="327" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="328" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="329" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="330" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="331" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="3" fontId="318" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="319" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="320" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="321" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="324" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="325" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="326" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="327" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="328" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="329" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="330" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="7" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="332" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="333" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="334" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="335" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="336" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="337" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="338" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="339" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="340" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="341" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="342" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="343" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="344" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="345" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="346" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="347" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="348" fillId="9" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="3" fontId="332" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="333" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="334" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="335" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="336" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="337" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="338" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="339" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="340" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="341" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="342" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="343" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="344" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="345" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="346" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="347" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="349" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="350" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="351" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="352" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="353" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="354" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="355" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="356" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="357" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="358" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="359" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="360" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="361" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="362" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="363" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="364" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
+    <xf numFmtId="3" fontId="349" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="350" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="351" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="352" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="353" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="354" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="355" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="356" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="357" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="358" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="359" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="360" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="361" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="362" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="363" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="364" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
       <alignment vertical="center" horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="365" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
       <alignment vertical="center" horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="366" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="367" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="368" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="369" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="370" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="371" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="372" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="373" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="374" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="375" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="376" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="377" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="378" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="379" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="380" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="3" fontId="367" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="368" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="369" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="370" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="371" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="372" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="373" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="374" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="375" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="376" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="377" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="378" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="379" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
       <alignment vertical="center" horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="381" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true"/>
     <xf numFmtId="0" fontId="382" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="383" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="384" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="385" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="386" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="387" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="388" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="389" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="390" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="391" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="392" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="393" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="394" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="395" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="396" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="397" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="398" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="3" fontId="383" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="384" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="385" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="386" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="387" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="388" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="389" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="390" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="391" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="392" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="393" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="394" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="395" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="396" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="397" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="398" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
       <alignment vertical="center" horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="399" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true"/>
     <xf numFmtId="0" fontId="400" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="401" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="402" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="403" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="404" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="405" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="406" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="3" fontId="401" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="402" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="403" fillId="3" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="404" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="405" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="406" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFont="true" applyNumberFormat="true">
       <alignment vertical="center" horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="407" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="408" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="408" fillId="7" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="409" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="410" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="411" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="412" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="413" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="414" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="415" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="416" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="417" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="418" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="419" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="420" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="421" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="422" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="423" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="424" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="425" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="426" fillId="9" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="3" fontId="409" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="410" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="411" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="412" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="413" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="414" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="415" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="416" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="417" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="418" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="419" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="420" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="421" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="422" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="423" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="424" fillId="7" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="427" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="428" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="429" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="430" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="431" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="432" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="433" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="434" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="435" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="436" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="437" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="438" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="439" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="440" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="441" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="442" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="443" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="444" fillId="11" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="3" fontId="427" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="428" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="429" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="430" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="431" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="432" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="433" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="434" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="435" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="436" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="437" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="438" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="439" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="440" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="441" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="442" fillId="9" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="11" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
@@ -4509,228 +4498,222 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="445" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="446" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="447" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="448" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="449" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="450" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="451" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="452" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="453" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="454" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="455" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="456" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="457" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="458" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="459" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="460" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
+    <xf numFmtId="3" fontId="445" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="446" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="447" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="448" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="449" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="450" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="451" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="452" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="453" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="454" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="455" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="456" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="457" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="458" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="459" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="460" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
       <alignment vertical="center" horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="461" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
       <alignment vertical="center" horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="462" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="463" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="464" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="465" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="466" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="467" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="468" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="469" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="470" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="471" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="472" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="473" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="474" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="475" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="476" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="477" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="478" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyFill="true">
+    <xf numFmtId="3" fontId="462" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="463" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="464" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="465" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="466" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="467" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="468" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="469" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="470" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="471" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="472" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="473" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="474" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="475" fillId="5" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="476" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="477" fillId="11" borderId="4" xfId="0" applyBorder="true" applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="13" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="479" fillId="13" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="480" fillId="11" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="481" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="482" fillId="9" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="483" fillId="7" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="480" fillId="11" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="481" fillId="9" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="482" fillId="9" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="483" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="484" fillId="7" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="484" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="485" fillId="7" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="485" fillId="7" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
@@ -5574,10 +5557,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="509"/>
-      <c r="B2" s="510"/>
-      <c r="C2" s="511"/>
-      <c r="D2" s="512"/>
+      <c r="A2" s="505"/>
+      <c r="B2" s="506"/>
+      <c r="C2" s="507"/>
+      <c r="D2" s="508"/>
       <c r="E2" t="s" s="14">
         <v>3</v>
       </c>
@@ -5607,11 +5590,11 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="513">
+      <c r="A3" t="s" s="505">
         <v>286</v>
       </c>
-      <c r="B3" s="514"/>
-      <c r="C3" s="515"/>
+      <c r="B3" s="509"/>
+      <c r="C3" s="510"/>
       <c r="D3" t="s" s="34">
         <v>7</v>
       </c>
@@ -5662,89 +5645,89 @@
       <c r="U3" s="33"/>
     </row>
     <row r="4">
-      <c r="A4" s="516"/>
-      <c r="B4" s="517"/>
-      <c r="C4" s="518"/>
+      <c r="A4" s="511"/>
+      <c r="B4" s="512"/>
+      <c r="C4" s="513"/>
       <c r="D4" t="s" s="49">
         <v>22</v>
       </c>
-      <c r="E4" t="s" s="50">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s" s="51">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s" s="52">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s" s="53">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s" s="54">
-        <v>25</v>
-      </c>
-      <c r="J4" t="s" s="55">
-        <v>26</v>
-      </c>
-      <c r="K4" t="s" s="56">
-        <v>27</v>
-      </c>
-      <c r="L4" t="s" s="57">
-        <v>24</v>
-      </c>
-      <c r="M4" t="s" s="58">
-        <v>24</v>
-      </c>
-      <c r="N4" t="s" s="59">
-        <v>26</v>
-      </c>
-      <c r="O4" t="s" s="60">
-        <v>25</v>
-      </c>
-      <c r="P4" t="s" s="61">
-        <v>28</v>
-      </c>
-      <c r="Q4" t="s" s="62">
-        <v>26</v>
-      </c>
-      <c r="R4" t="s" s="63">
-        <v>29</v>
-      </c>
-      <c r="S4" t="s" s="64">
-        <v>30</v>
-      </c>
-      <c r="T4" t="s" s="65">
-        <v>30</v>
-      </c>
-      <c r="U4" s="620"/>
+      <c r="E4" t="n" s="50">
+        <v>20.0</v>
+      </c>
+      <c r="F4" t="n" s="51">
+        <v>22.0</v>
+      </c>
+      <c r="G4" t="n" s="52">
+        <v>22.0</v>
+      </c>
+      <c r="H4" t="n" s="53">
+        <v>20.0</v>
+      </c>
+      <c r="I4" t="n" s="54">
+        <v>23.0</v>
+      </c>
+      <c r="J4" t="n" s="55">
+        <v>21.0</v>
+      </c>
+      <c r="K4" t="n" s="56">
+        <v>128.0</v>
+      </c>
+      <c r="L4" t="n" s="57">
+        <v>22.0</v>
+      </c>
+      <c r="M4" t="n" s="58">
+        <v>22.0</v>
+      </c>
+      <c r="N4" t="n" s="59">
+        <v>21.0</v>
+      </c>
+      <c r="O4" t="n" s="60">
+        <v>23.0</v>
+      </c>
+      <c r="P4" t="n" s="61">
+        <v>14.0</v>
+      </c>
+      <c r="Q4" t="n" s="62">
+        <v>21.0</v>
+      </c>
+      <c r="R4" t="n" s="63">
+        <v>123.0</v>
+      </c>
+      <c r="S4" t="n" s="64">
+        <v>251.0</v>
+      </c>
+      <c r="T4" t="n" s="65">
+        <v>251.0</v>
+      </c>
+      <c r="U4" s="615"/>
     </row>
     <row r="5">
-      <c r="A5" s="519"/>
-      <c r="B5" s="520"/>
-      <c r="C5" s="521"/>
+      <c r="A5" s="514"/>
+      <c r="B5" s="515"/>
+      <c r="C5" s="516"/>
       <c r="D5" t="s" s="66">
         <v>31</v>
       </c>
-      <c r="E5" s="621"/>
-      <c r="F5" s="622"/>
+      <c r="E5" s="616"/>
+      <c r="F5" s="617"/>
       <c r="G5" t="s" s="67">
         <v>32</v>
       </c>
-      <c r="H5" s="623"/>
+      <c r="H5" s="618"/>
       <c r="I5" t="s" s="68">
         <v>32</v>
       </c>
-      <c r="J5" s="624"/>
+      <c r="J5" s="619"/>
       <c r="K5" t="s" s="69">
         <v>33</v>
       </c>
-      <c r="L5" s="625"/>
-      <c r="M5" s="626"/>
-      <c r="N5" s="627"/>
-      <c r="O5" s="628"/>
-      <c r="P5" s="629"/>
-      <c r="Q5" s="630"/>
-      <c r="R5" s="631"/>
+      <c r="L5" s="620"/>
+      <c r="M5" s="621"/>
+      <c r="N5" s="622"/>
+      <c r="O5" s="623"/>
+      <c r="P5" s="624"/>
+      <c r="Q5" s="625"/>
+      <c r="R5" s="626"/>
       <c r="S5" t="s" s="70">
         <v>33</v>
       </c>
@@ -5756,1709 +5739,1709 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="522"/>
-      <c r="B6" s="523"/>
-      <c r="C6" s="524"/>
+      <c r="A6" s="517"/>
+      <c r="B6" s="518"/>
+      <c r="C6" s="519"/>
       <c r="D6" t="s" s="73">
         <v>34</v>
       </c>
-      <c r="E6" s="632"/>
-      <c r="F6" s="633"/>
-      <c r="G6" s="634"/>
-      <c r="H6" s="635"/>
-      <c r="I6" s="636"/>
-      <c r="J6" s="637"/>
-      <c r="K6" s="638"/>
-      <c r="L6" s="639"/>
-      <c r="M6" s="640"/>
-      <c r="N6" s="641"/>
-      <c r="O6" s="642"/>
-      <c r="P6" s="643"/>
-      <c r="Q6" s="644"/>
-      <c r="R6" s="645"/>
-      <c r="S6" s="646"/>
-      <c r="T6" s="647"/>
-      <c r="U6" s="648"/>
+      <c r="E6" s="627"/>
+      <c r="F6" s="628"/>
+      <c r="G6" s="629"/>
+      <c r="H6" s="630"/>
+      <c r="I6" s="631"/>
+      <c r="J6" s="632"/>
+      <c r="K6" s="633"/>
+      <c r="L6" s="634"/>
+      <c r="M6" s="635"/>
+      <c r="N6" s="636"/>
+      <c r="O6" s="637"/>
+      <c r="P6" s="638"/>
+      <c r="Q6" s="639"/>
+      <c r="R6" s="640"/>
+      <c r="S6" s="641"/>
+      <c r="T6" s="642"/>
+      <c r="U6" s="643"/>
     </row>
     <row r="7">
-      <c r="A7" s="525"/>
-      <c r="B7" s="526"/>
-      <c r="C7" s="527"/>
+      <c r="A7" s="520"/>
+      <c r="B7" s="521"/>
+      <c r="C7" s="522"/>
       <c r="D7" t="s" s="74">
         <v>35</v>
       </c>
-      <c r="E7" s="649"/>
-      <c r="F7" s="650"/>
-      <c r="G7" s="651"/>
-      <c r="H7" s="652"/>
-      <c r="I7" s="653"/>
-      <c r="J7" s="654"/>
-      <c r="K7" s="655"/>
-      <c r="L7" s="656"/>
-      <c r="M7" s="657"/>
-      <c r="N7" s="658"/>
-      <c r="O7" s="659"/>
-      <c r="P7" s="660"/>
-      <c r="Q7" s="661"/>
-      <c r="R7" s="662"/>
-      <c r="S7" s="663"/>
-      <c r="T7" s="664"/>
-      <c r="U7" s="665"/>
+      <c r="E7" s="644"/>
+      <c r="F7" s="645"/>
+      <c r="G7" s="646"/>
+      <c r="H7" s="647"/>
+      <c r="I7" s="648"/>
+      <c r="J7" s="649"/>
+      <c r="K7" s="650"/>
+      <c r="L7" s="651"/>
+      <c r="M7" s="652"/>
+      <c r="N7" s="653"/>
+      <c r="O7" s="654"/>
+      <c r="P7" s="655"/>
+      <c r="Q7" s="656"/>
+      <c r="R7" s="657"/>
+      <c r="S7" s="658"/>
+      <c r="T7" s="659"/>
+      <c r="U7" s="660"/>
     </row>
     <row r="8">
-      <c r="A8" s="528"/>
-      <c r="B8" s="529"/>
-      <c r="C8" s="530"/>
+      <c r="A8" s="523"/>
+      <c r="B8" s="524"/>
+      <c r="C8" s="525"/>
       <c r="D8" t="s" s="75">
         <v>36</v>
       </c>
-      <c r="E8" s="666"/>
-      <c r="F8" s="667"/>
-      <c r="G8" s="668"/>
-      <c r="H8" s="669"/>
-      <c r="I8" s="670"/>
-      <c r="J8" s="671"/>
-      <c r="K8" s="672"/>
-      <c r="L8" s="673"/>
-      <c r="M8" s="674"/>
-      <c r="N8" s="675"/>
-      <c r="O8" s="676"/>
-      <c r="P8" s="677"/>
-      <c r="Q8" t="s" s="76">
-        <v>37</v>
-      </c>
-      <c r="R8" t="s" s="77">
-        <v>37</v>
-      </c>
-      <c r="S8" t="s" s="78">
-        <v>37</v>
-      </c>
-      <c r="T8" t="s" s="79">
-        <v>37</v>
-      </c>
-      <c r="U8" s="678"/>
+      <c r="E8" s="661"/>
+      <c r="F8" s="662"/>
+      <c r="G8" s="663"/>
+      <c r="H8" s="664"/>
+      <c r="I8" s="665"/>
+      <c r="J8" s="666"/>
+      <c r="K8" s="667"/>
+      <c r="L8" s="668"/>
+      <c r="M8" s="669"/>
+      <c r="N8" s="670"/>
+      <c r="O8" s="671"/>
+      <c r="P8" s="672"/>
+      <c r="Q8" t="n" s="76">
+        <v>1.0</v>
+      </c>
+      <c r="R8" t="n" s="77">
+        <v>1.0</v>
+      </c>
+      <c r="S8" t="n" s="78">
+        <v>1.0</v>
+      </c>
+      <c r="T8" t="n" s="79">
+        <v>1.0</v>
+      </c>
+      <c r="U8" s="673"/>
     </row>
     <row r="9">
-      <c r="A9" s="531"/>
-      <c r="B9" s="532"/>
-      <c r="C9" s="533"/>
+      <c r="A9" s="526"/>
+      <c r="B9" s="527"/>
+      <c r="C9" s="528"/>
       <c r="D9" t="s" s="80">
         <v>38</v>
       </c>
-      <c r="E9" t="s" s="81">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s" s="82">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s" s="83">
-        <v>23</v>
-      </c>
-      <c r="H9" t="s" s="84">
-        <v>23</v>
-      </c>
-      <c r="I9" t="s" s="85">
-        <v>26</v>
-      </c>
-      <c r="J9" t="s" s="86">
-        <v>26</v>
-      </c>
-      <c r="K9" t="s" s="87">
-        <v>39</v>
-      </c>
-      <c r="L9" t="s" s="88">
-        <v>24</v>
-      </c>
-      <c r="M9" t="s" s="89">
-        <v>24</v>
-      </c>
-      <c r="N9" t="s" s="90">
-        <v>26</v>
-      </c>
-      <c r="O9" t="s" s="91">
-        <v>25</v>
-      </c>
-      <c r="P9" t="s" s="92">
-        <v>28</v>
-      </c>
-      <c r="Q9" t="s" s="93">
-        <v>23</v>
-      </c>
-      <c r="R9" t="s" s="94">
-        <v>40</v>
-      </c>
-      <c r="S9" t="s" s="95">
-        <v>41</v>
-      </c>
-      <c r="T9" t="s" s="96">
-        <v>42</v>
+      <c r="E9" t="n" s="81">
+        <v>20.0</v>
+      </c>
+      <c r="F9" t="n" s="82">
+        <v>22.0</v>
+      </c>
+      <c r="G9" t="n" s="83">
+        <v>20.0</v>
+      </c>
+      <c r="H9" t="n" s="84">
+        <v>20.0</v>
+      </c>
+      <c r="I9" t="n" s="85">
+        <v>21.0</v>
+      </c>
+      <c r="J9" t="n" s="86">
+        <v>21.0</v>
+      </c>
+      <c r="K9" t="n" s="87">
+        <v>124.0</v>
+      </c>
+      <c r="L9" t="n" s="88">
+        <v>22.0</v>
+      </c>
+      <c r="M9" t="n" s="89">
+        <v>22.0</v>
+      </c>
+      <c r="N9" t="n" s="90">
+        <v>21.0</v>
+      </c>
+      <c r="O9" t="n" s="91">
+        <v>23.0</v>
+      </c>
+      <c r="P9" t="n" s="92">
+        <v>14.0</v>
+      </c>
+      <c r="Q9" t="n" s="93">
+        <v>20.0</v>
+      </c>
+      <c r="R9" t="n" s="94">
+        <v>122.0</v>
+      </c>
+      <c r="S9" t="n" s="95">
+        <v>246.0</v>
+      </c>
+      <c r="T9" t="n" s="96">
+        <v>248.0</v>
       </c>
       <c r="U9" t="s" s="97">
         <v>32</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="534">
+      <c r="A10" t="s" s="529">
         <v>287</v>
       </c>
-      <c r="B10" t="s" s="565">
+      <c r="B10" t="s" s="560">
         <v>288</v>
       </c>
-      <c r="C10" t="s" s="594">
+      <c r="C10" t="s" s="589">
         <v>37</v>
       </c>
       <c r="D10" t="s" s="98">
         <v>43</v>
       </c>
-      <c r="E10" t="s" s="99">
-        <v>44</v>
-      </c>
-      <c r="F10" t="s" s="100">
-        <v>45</v>
-      </c>
-      <c r="G10" t="s" s="101">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s" s="102">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s" s="103">
-        <v>45</v>
-      </c>
-      <c r="J10" t="s" s="104">
-        <v>48</v>
-      </c>
-      <c r="K10" t="s" s="105">
-        <v>49</v>
-      </c>
-      <c r="L10" t="s" s="106">
-        <v>50</v>
-      </c>
-      <c r="M10" t="s" s="107">
-        <v>51</v>
-      </c>
-      <c r="N10" t="s" s="108">
-        <v>48</v>
-      </c>
-      <c r="O10" t="s" s="109">
-        <v>52</v>
-      </c>
-      <c r="P10" s="679"/>
-      <c r="Q10" s="680"/>
-      <c r="R10" t="s" s="110">
-        <v>53</v>
-      </c>
-      <c r="S10" t="s" s="111">
-        <v>54</v>
-      </c>
-      <c r="T10" t="s" s="112">
-        <v>55</v>
+      <c r="E10" t="n" s="99">
+        <v>2700.0</v>
+      </c>
+      <c r="F10" t="n" s="100">
+        <v>3800.0</v>
+      </c>
+      <c r="G10" t="n" s="101">
+        <v>5300.0</v>
+      </c>
+      <c r="H10" t="n" s="102">
+        <v>4700.0</v>
+      </c>
+      <c r="I10" t="n" s="103">
+        <v>3800.0</v>
+      </c>
+      <c r="J10" t="n" s="104">
+        <v>5000.0</v>
+      </c>
+      <c r="K10" t="n" s="105">
+        <v>25300.0</v>
+      </c>
+      <c r="L10" t="n" s="106">
+        <v>4400.0</v>
+      </c>
+      <c r="M10" t="n" s="107">
+        <v>5200.0</v>
+      </c>
+      <c r="N10" t="n" s="108">
+        <v>5000.0</v>
+      </c>
+      <c r="O10" t="n" s="109">
+        <v>4300.0</v>
+      </c>
+      <c r="P10" s="674"/>
+      <c r="Q10" s="675"/>
+      <c r="R10" t="n" s="110">
+        <v>18900.0</v>
+      </c>
+      <c r="S10" t="n" s="111">
+        <v>44200.0</v>
+      </c>
+      <c r="T10" t="n" s="112">
+        <v>51200.0</v>
       </c>
       <c r="U10" t="s" s="113">
         <v>56</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="535"/>
-      <c r="B11" s="566"/>
-      <c r="C11" s="595"/>
+      <c r="A11" s="530"/>
+      <c r="B11" s="561"/>
+      <c r="C11" s="590"/>
       <c r="D11" t="s" s="114">
         <v>57</v>
       </c>
-      <c r="E11" t="s" s="115">
-        <v>52</v>
-      </c>
-      <c r="F11" t="s" s="116">
-        <v>58</v>
-      </c>
-      <c r="G11" t="s" s="117">
-        <v>59</v>
-      </c>
-      <c r="H11" t="s" s="118">
-        <v>60</v>
-      </c>
-      <c r="I11" t="s" s="119">
-        <v>61</v>
-      </c>
-      <c r="J11" t="s" s="120">
-        <v>62</v>
-      </c>
-      <c r="K11" t="s" s="121">
-        <v>63</v>
-      </c>
-      <c r="L11" t="s" s="122">
-        <v>64</v>
-      </c>
-      <c r="M11" t="s" s="123">
-        <v>65</v>
-      </c>
-      <c r="N11" t="s" s="124">
-        <v>66</v>
-      </c>
-      <c r="O11" t="s" s="125">
-        <v>67</v>
-      </c>
-      <c r="P11" t="s" s="126">
-        <v>68</v>
-      </c>
-      <c r="Q11" s="681"/>
-      <c r="R11" t="s" s="127">
-        <v>69</v>
-      </c>
-      <c r="S11" t="s" s="128">
-        <v>70</v>
-      </c>
-      <c r="T11" t="s" s="129">
-        <v>71</v>
+      <c r="E11" t="n" s="115">
+        <v>4300.0</v>
+      </c>
+      <c r="F11" t="n" s="116">
+        <v>5600.0</v>
+      </c>
+      <c r="G11" t="n" s="117">
+        <v>7400.0</v>
+      </c>
+      <c r="H11" t="n" s="118">
+        <v>7300.0</v>
+      </c>
+      <c r="I11" t="n" s="119">
+        <v>6200.0</v>
+      </c>
+      <c r="J11" t="n" s="120">
+        <v>5500.0</v>
+      </c>
+      <c r="K11" t="n" s="121">
+        <v>36300.0</v>
+      </c>
+      <c r="L11" t="n" s="122">
+        <v>7200.0</v>
+      </c>
+      <c r="M11" t="n" s="123">
+        <v>1900.0</v>
+      </c>
+      <c r="N11" t="n" s="124">
+        <v>8000.0</v>
+      </c>
+      <c r="O11" t="n" s="125">
+        <v>2200.0</v>
+      </c>
+      <c r="P11" t="n" s="126">
+        <v>400.0</v>
+      </c>
+      <c r="Q11" s="676"/>
+      <c r="R11" t="n" s="127">
+        <v>19700.0</v>
+      </c>
+      <c r="S11" t="n" s="128">
+        <v>56000.0</v>
+      </c>
+      <c r="T11" t="n" s="129">
+        <v>64300.0</v>
       </c>
       <c r="U11" t="s" s="130">
         <v>72</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="536"/>
-      <c r="B12" s="567"/>
-      <c r="C12" s="596"/>
+      <c r="A12" s="531"/>
+      <c r="B12" s="562"/>
+      <c r="C12" s="591"/>
       <c r="D12" t="s" s="131">
         <v>73</v>
       </c>
-      <c r="E12" t="s" s="132">
-        <v>74</v>
-      </c>
-      <c r="F12" t="s" s="133">
-        <v>75</v>
-      </c>
-      <c r="G12" t="s" s="134">
-        <v>76</v>
-      </c>
-      <c r="H12" t="s" s="135">
-        <v>77</v>
-      </c>
-      <c r="I12" t="s" s="136">
-        <v>78</v>
-      </c>
-      <c r="J12" t="s" s="137">
-        <v>79</v>
-      </c>
-      <c r="K12" t="s" s="138">
-        <v>80</v>
-      </c>
-      <c r="L12" t="s" s="139">
-        <v>79</v>
-      </c>
-      <c r="M12" s="682"/>
-      <c r="N12" s="683"/>
-      <c r="O12" t="s" s="140">
-        <v>81</v>
-      </c>
-      <c r="P12" t="s" s="141">
-        <v>82</v>
-      </c>
-      <c r="Q12" s="684"/>
-      <c r="R12" t="s" s="142">
-        <v>83</v>
-      </c>
-      <c r="S12" t="s" s="143">
-        <v>84</v>
-      </c>
-      <c r="T12" t="s" s="144">
-        <v>85</v>
-      </c>
-      <c r="U12" t="s" s="145">
-        <v>86</v>
+      <c r="E12" t="n" s="132">
+        <v>1700.0</v>
+      </c>
+      <c r="F12" t="n" s="133">
+        <v>3301.0</v>
+      </c>
+      <c r="G12" t="n" s="134">
+        <v>14200.0</v>
+      </c>
+      <c r="H12" t="n" s="135">
+        <v>10800.0</v>
+      </c>
+      <c r="I12" t="n" s="136">
+        <v>13100.0</v>
+      </c>
+      <c r="J12" t="n" s="137">
+        <v>3700.0</v>
+      </c>
+      <c r="K12" t="n" s="138">
+        <v>46801.0</v>
+      </c>
+      <c r="L12" t="n" s="139">
+        <v>3700.0</v>
+      </c>
+      <c r="M12" s="677"/>
+      <c r="N12" s="678"/>
+      <c r="O12" t="n" s="140">
+        <v>200.0</v>
+      </c>
+      <c r="P12" t="n" s="141">
+        <v>1500.0</v>
+      </c>
+      <c r="Q12" s="679"/>
+      <c r="R12" t="n" s="142">
+        <v>5400.0</v>
+      </c>
+      <c r="S12" t="n" s="143">
+        <v>52201.0</v>
+      </c>
+      <c r="T12" t="n" s="144">
+        <v>47101.0</v>
+      </c>
+      <c r="U12" t="n" s="145">
+        <v>5100.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="537"/>
-      <c r="B13" s="568"/>
-      <c r="C13" s="597"/>
+      <c r="A13" s="532"/>
+      <c r="B13" s="563"/>
+      <c r="C13" s="592"/>
       <c r="D13" t="s" s="146">
         <v>87</v>
       </c>
-      <c r="E13" s="685"/>
-      <c r="F13" s="686"/>
-      <c r="G13" s="687"/>
-      <c r="H13" t="s" s="147">
-        <v>88</v>
-      </c>
-      <c r="I13" s="688"/>
-      <c r="J13" s="689"/>
-      <c r="K13" t="s" s="148">
-        <v>88</v>
-      </c>
-      <c r="L13" s="690"/>
-      <c r="M13" t="s" s="149">
-        <v>89</v>
-      </c>
-      <c r="N13" t="s" s="150">
-        <v>64</v>
-      </c>
-      <c r="O13" t="s" s="151">
-        <v>90</v>
-      </c>
-      <c r="P13" t="s" s="152">
-        <v>91</v>
-      </c>
-      <c r="Q13" t="s" s="153">
-        <v>92</v>
-      </c>
-      <c r="R13" t="s" s="154">
-        <v>93</v>
-      </c>
-      <c r="S13" t="s" s="155">
-        <v>94</v>
-      </c>
-      <c r="T13" t="s" s="156">
-        <v>95</v>
-      </c>
-      <c r="U13" t="s" s="157">
-        <v>83</v>
+      <c r="E13" s="680"/>
+      <c r="F13" s="681"/>
+      <c r="G13" s="682"/>
+      <c r="H13" t="n" s="147">
+        <v>1600.0</v>
+      </c>
+      <c r="I13" s="683"/>
+      <c r="J13" s="684"/>
+      <c r="K13" t="n" s="148">
+        <v>1600.0</v>
+      </c>
+      <c r="L13" s="685"/>
+      <c r="M13" t="n" s="149">
+        <v>13500.0</v>
+      </c>
+      <c r="N13" t="n" s="150">
+        <v>7200.0</v>
+      </c>
+      <c r="O13" t="n" s="151">
+        <v>5800.0</v>
+      </c>
+      <c r="P13" t="n" s="152">
+        <v>2900.0</v>
+      </c>
+      <c r="Q13" t="n" s="153">
+        <v>9800.0</v>
+      </c>
+      <c r="R13" t="n" s="154">
+        <v>39200.0</v>
+      </c>
+      <c r="S13" t="n" s="155">
+        <v>40800.0</v>
+      </c>
+      <c r="T13" t="n" s="156">
+        <v>35400.0</v>
+      </c>
+      <c r="U13" t="n" s="157">
+        <v>5400.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="538"/>
-      <c r="B14" s="569"/>
+      <c r="A14" s="533"/>
+      <c r="B14" s="564"/>
       <c r="C14" t="s" s="158">
         <v>96</v>
       </c>
       <c r="D14" s="159"/>
-      <c r="E14" t="s" s="160">
-        <v>97</v>
-      </c>
-      <c r="F14" t="s" s="161">
-        <v>98</v>
-      </c>
-      <c r="G14" t="s" s="162">
-        <v>99</v>
-      </c>
-      <c r="H14" t="s" s="163">
-        <v>100</v>
-      </c>
-      <c r="I14" t="s" s="164">
-        <v>101</v>
-      </c>
-      <c r="J14" t="s" s="165">
-        <v>76</v>
-      </c>
-      <c r="K14" t="s" s="166">
-        <v>102</v>
-      </c>
-      <c r="L14" t="s" s="167">
-        <v>103</v>
-      </c>
-      <c r="M14" t="s" s="168">
-        <v>104</v>
-      </c>
-      <c r="N14" t="s" s="169">
-        <v>105</v>
-      </c>
-      <c r="O14" t="s" s="170">
-        <v>106</v>
-      </c>
-      <c r="P14" t="s" s="171">
-        <v>107</v>
-      </c>
-      <c r="Q14" t="s" s="172">
-        <v>92</v>
-      </c>
-      <c r="R14" t="s" s="173">
-        <v>108</v>
-      </c>
-      <c r="S14" t="s" s="174">
-        <v>109</v>
-      </c>
-      <c r="T14" t="s" s="175">
-        <v>110</v>
+      <c r="E14" t="n" s="160">
+        <v>8700.0</v>
+      </c>
+      <c r="F14" t="n" s="161">
+        <v>12701.0</v>
+      </c>
+      <c r="G14" t="n" s="162">
+        <v>26900.0</v>
+      </c>
+      <c r="H14" t="n" s="163">
+        <v>24400.0</v>
+      </c>
+      <c r="I14" t="n" s="164">
+        <v>23100.0</v>
+      </c>
+      <c r="J14" t="n" s="165">
+        <v>14200.0</v>
+      </c>
+      <c r="K14" t="n" s="166">
+        <v>110001.0</v>
+      </c>
+      <c r="L14" t="n" s="167">
+        <v>15300.0</v>
+      </c>
+      <c r="M14" t="n" s="168">
+        <v>20600.0</v>
+      </c>
+      <c r="N14" t="n" s="169">
+        <v>20200.0</v>
+      </c>
+      <c r="O14" t="n" s="170">
+        <v>12500.0</v>
+      </c>
+      <c r="P14" t="n" s="171">
+        <v>4800.0</v>
+      </c>
+      <c r="Q14" t="n" s="172">
+        <v>9800.0</v>
+      </c>
+      <c r="R14" t="n" s="173">
+        <v>83200.0</v>
+      </c>
+      <c r="S14" t="n" s="174">
+        <v>193201.0</v>
+      </c>
+      <c r="T14" t="n" s="175">
+        <v>198001.0</v>
       </c>
       <c r="U14" t="s" s="176">
         <v>111</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="539"/>
-      <c r="B15" s="570"/>
-      <c r="C15" t="s" s="598">
+      <c r="A15" s="534"/>
+      <c r="B15" s="565"/>
+      <c r="C15" t="s" s="593">
         <v>290</v>
       </c>
       <c r="D15" t="s" s="177">
         <v>112</v>
       </c>
-      <c r="E15" t="s" s="178">
-        <v>113</v>
-      </c>
-      <c r="F15" t="s" s="179">
-        <v>86</v>
-      </c>
-      <c r="G15" t="s" s="180">
-        <v>114</v>
-      </c>
-      <c r="H15" t="s" s="181">
-        <v>91</v>
-      </c>
-      <c r="I15" s="691"/>
-      <c r="J15" s="692"/>
-      <c r="K15" t="s" s="182">
-        <v>115</v>
-      </c>
-      <c r="L15" s="693"/>
-      <c r="M15" s="694"/>
-      <c r="N15" s="695"/>
-      <c r="O15" s="696"/>
-      <c r="P15" s="697"/>
-      <c r="Q15" s="698"/>
-      <c r="R15" s="699"/>
-      <c r="S15" t="s" s="183">
-        <v>115</v>
-      </c>
-      <c r="T15" t="s" s="184">
-        <v>115</v>
-      </c>
-      <c r="U15" s="700"/>
+      <c r="E15" t="n" s="178">
+        <v>9200.0</v>
+      </c>
+      <c r="F15" t="n" s="179">
+        <v>5100.0</v>
+      </c>
+      <c r="G15" t="n" s="180">
+        <v>3100.0</v>
+      </c>
+      <c r="H15" t="n" s="181">
+        <v>2900.0</v>
+      </c>
+      <c r="I15" s="686"/>
+      <c r="J15" s="687"/>
+      <c r="K15" t="n" s="182">
+        <v>20300.0</v>
+      </c>
+      <c r="L15" s="688"/>
+      <c r="M15" s="689"/>
+      <c r="N15" s="690"/>
+      <c r="O15" s="691"/>
+      <c r="P15" s="692"/>
+      <c r="Q15" s="693"/>
+      <c r="R15" s="694"/>
+      <c r="S15" t="n" s="183">
+        <v>20300.0</v>
+      </c>
+      <c r="T15" t="n" s="184">
+        <v>20300.0</v>
+      </c>
+      <c r="U15" s="695"/>
     </row>
     <row r="16">
-      <c r="A16" s="540"/>
-      <c r="B16" s="571"/>
-      <c r="C16" s="599"/>
+      <c r="A16" s="535"/>
+      <c r="B16" s="566"/>
+      <c r="C16" s="594"/>
       <c r="D16" t="s" s="185">
         <v>116</v>
       </c>
-      <c r="E16" t="s" s="186">
-        <v>117</v>
-      </c>
-      <c r="F16" t="s" s="187">
-        <v>118</v>
-      </c>
-      <c r="G16" t="s" s="188">
-        <v>118</v>
-      </c>
-      <c r="H16" t="s" s="189">
-        <v>119</v>
-      </c>
-      <c r="I16" s="701"/>
-      <c r="J16" s="702"/>
-      <c r="K16" t="s" s="190">
-        <v>67</v>
-      </c>
-      <c r="L16" s="703"/>
-      <c r="M16" s="704"/>
-      <c r="N16" s="705"/>
-      <c r="O16" s="706"/>
-      <c r="P16" s="707"/>
-      <c r="Q16" s="708"/>
-      <c r="R16" s="709"/>
-      <c r="S16" t="s" s="191">
-        <v>67</v>
-      </c>
-      <c r="T16" t="s" s="192">
-        <v>67</v>
-      </c>
-      <c r="U16" s="710"/>
+      <c r="E16" t="n" s="186">
+        <v>300.0</v>
+      </c>
+      <c r="F16" t="n" s="187">
+        <v>700.0</v>
+      </c>
+      <c r="G16" t="n" s="188">
+        <v>700.0</v>
+      </c>
+      <c r="H16" t="n" s="189">
+        <v>500.0</v>
+      </c>
+      <c r="I16" s="696"/>
+      <c r="J16" s="697"/>
+      <c r="K16" t="n" s="190">
+        <v>2200.0</v>
+      </c>
+      <c r="L16" s="698"/>
+      <c r="M16" s="699"/>
+      <c r="N16" s="700"/>
+      <c r="O16" s="701"/>
+      <c r="P16" s="702"/>
+      <c r="Q16" s="703"/>
+      <c r="R16" s="704"/>
+      <c r="S16" t="n" s="191">
+        <v>2200.0</v>
+      </c>
+      <c r="T16" t="n" s="192">
+        <v>2200.0</v>
+      </c>
+      <c r="U16" s="705"/>
     </row>
     <row r="17">
-      <c r="A17" s="541"/>
-      <c r="B17" s="572"/>
-      <c r="C17" s="600"/>
+      <c r="A17" s="536"/>
+      <c r="B17" s="567"/>
+      <c r="C17" s="595"/>
       <c r="D17" t="s" s="193">
         <v>120</v>
       </c>
-      <c r="E17" t="s" s="194">
-        <v>68</v>
-      </c>
-      <c r="F17" t="s" s="195">
-        <v>121</v>
-      </c>
-      <c r="G17" t="s" s="196">
-        <v>121</v>
-      </c>
-      <c r="H17" t="s" s="197">
-        <v>118</v>
-      </c>
-      <c r="I17" s="711"/>
-      <c r="J17" s="712"/>
-      <c r="K17" t="s" s="198">
-        <v>91</v>
-      </c>
-      <c r="L17" s="713"/>
-      <c r="M17" s="714"/>
-      <c r="N17" s="715"/>
-      <c r="O17" s="716"/>
-      <c r="P17" s="717"/>
-      <c r="Q17" s="718"/>
-      <c r="R17" s="719"/>
-      <c r="S17" t="s" s="199">
-        <v>91</v>
-      </c>
-      <c r="T17" t="s" s="200">
-        <v>91</v>
-      </c>
-      <c r="U17" s="720"/>
+      <c r="E17" t="n" s="194">
+        <v>400.0</v>
+      </c>
+      <c r="F17" t="n" s="195">
+        <v>900.0</v>
+      </c>
+      <c r="G17" t="n" s="196">
+        <v>900.0</v>
+      </c>
+      <c r="H17" t="n" s="197">
+        <v>700.0</v>
+      </c>
+      <c r="I17" s="706"/>
+      <c r="J17" s="707"/>
+      <c r="K17" t="n" s="198">
+        <v>2900.0</v>
+      </c>
+      <c r="L17" s="708"/>
+      <c r="M17" s="709"/>
+      <c r="N17" s="710"/>
+      <c r="O17" s="711"/>
+      <c r="P17" s="712"/>
+      <c r="Q17" s="713"/>
+      <c r="R17" s="714"/>
+      <c r="S17" t="n" s="199">
+        <v>2900.0</v>
+      </c>
+      <c r="T17" t="n" s="200">
+        <v>2900.0</v>
+      </c>
+      <c r="U17" s="715"/>
     </row>
     <row r="18">
-      <c r="A18" s="542"/>
-      <c r="B18" s="573"/>
-      <c r="C18" s="601"/>
+      <c r="A18" s="537"/>
+      <c r="B18" s="568"/>
+      <c r="C18" s="596"/>
       <c r="D18" t="s" s="201">
         <v>122</v>
       </c>
-      <c r="E18" t="s" s="202">
-        <v>68</v>
-      </c>
-      <c r="F18" t="s" s="203">
-        <v>123</v>
-      </c>
-      <c r="G18" t="s" s="204">
-        <v>123</v>
-      </c>
-      <c r="H18" t="s" s="205">
-        <v>124</v>
-      </c>
-      <c r="I18" s="721"/>
-      <c r="J18" s="722"/>
-      <c r="K18" t="s" s="206">
-        <v>45</v>
-      </c>
-      <c r="L18" s="723"/>
-      <c r="M18" s="724"/>
-      <c r="N18" s="725"/>
-      <c r="O18" s="726"/>
-      <c r="P18" s="727"/>
-      <c r="Q18" s="728"/>
-      <c r="R18" s="729"/>
-      <c r="S18" t="s" s="207">
-        <v>45</v>
-      </c>
-      <c r="T18" t="s" s="208">
-        <v>45</v>
-      </c>
-      <c r="U18" s="730"/>
+      <c r="E18" t="n" s="202">
+        <v>400.0</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>1200.0</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>1200.0</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>1000.0</v>
+      </c>
+      <c r="I18" s="716"/>
+      <c r="J18" s="717"/>
+      <c r="K18" t="n" s="206">
+        <v>3800.0</v>
+      </c>
+      <c r="L18" s="718"/>
+      <c r="M18" s="719"/>
+      <c r="N18" s="720"/>
+      <c r="O18" s="721"/>
+      <c r="P18" s="722"/>
+      <c r="Q18" s="723"/>
+      <c r="R18" s="724"/>
+      <c r="S18" t="n" s="207">
+        <v>3800.0</v>
+      </c>
+      <c r="T18" t="n" s="208">
+        <v>3800.0</v>
+      </c>
+      <c r="U18" s="725"/>
     </row>
     <row r="19">
-      <c r="A19" s="543"/>
-      <c r="B19" s="574"/>
-      <c r="C19" s="602"/>
+      <c r="A19" s="538"/>
+      <c r="B19" s="569"/>
+      <c r="C19" s="597"/>
       <c r="D19" t="s" s="209">
         <v>125</v>
       </c>
-      <c r="E19" t="s" s="210">
-        <v>126</v>
-      </c>
-      <c r="F19" t="s" s="211">
-        <v>65</v>
-      </c>
-      <c r="G19" s="731"/>
-      <c r="H19" s="732"/>
-      <c r="I19" s="733"/>
-      <c r="J19" s="734"/>
-      <c r="K19" t="s" s="212">
-        <v>51</v>
-      </c>
-      <c r="L19" s="735"/>
-      <c r="M19" s="736"/>
-      <c r="N19" s="737"/>
-      <c r="O19" s="738"/>
-      <c r="P19" s="739"/>
-      <c r="Q19" s="740"/>
-      <c r="R19" s="741"/>
-      <c r="S19" t="s" s="213">
-        <v>51</v>
-      </c>
-      <c r="T19" t="s" s="214">
-        <v>51</v>
-      </c>
-      <c r="U19" s="742"/>
+      <c r="E19" t="n" s="210">
+        <v>3300.0</v>
+      </c>
+      <c r="F19" t="n" s="211">
+        <v>1900.0</v>
+      </c>
+      <c r="G19" s="726"/>
+      <c r="H19" s="727"/>
+      <c r="I19" s="728"/>
+      <c r="J19" s="729"/>
+      <c r="K19" t="n" s="212">
+        <v>5200.0</v>
+      </c>
+      <c r="L19" s="730"/>
+      <c r="M19" s="731"/>
+      <c r="N19" s="732"/>
+      <c r="O19" s="733"/>
+      <c r="P19" s="734"/>
+      <c r="Q19" s="735"/>
+      <c r="R19" s="736"/>
+      <c r="S19" t="n" s="213">
+        <v>5200.0</v>
+      </c>
+      <c r="T19" t="n" s="214">
+        <v>5200.0</v>
+      </c>
+      <c r="U19" s="737"/>
     </row>
     <row r="20">
-      <c r="A20" s="544"/>
-      <c r="B20" s="575"/>
-      <c r="C20" s="603"/>
+      <c r="A20" s="539"/>
+      <c r="B20" s="570"/>
+      <c r="C20" s="598"/>
       <c r="D20" t="s" s="215">
         <v>127</v>
       </c>
-      <c r="E20" t="s" s="216">
-        <v>65</v>
-      </c>
-      <c r="F20" t="s" s="217">
-        <v>128</v>
-      </c>
-      <c r="G20" t="s" s="218">
-        <v>128</v>
-      </c>
-      <c r="H20" t="s" s="219">
-        <v>68</v>
-      </c>
-      <c r="I20" s="743"/>
-      <c r="J20" s="744"/>
-      <c r="K20" t="s" s="220">
-        <v>129</v>
-      </c>
-      <c r="L20" s="745"/>
-      <c r="M20" s="746"/>
-      <c r="N20" s="747"/>
-      <c r="O20" s="748"/>
-      <c r="P20" s="749"/>
-      <c r="Q20" s="750"/>
-      <c r="R20" s="751"/>
-      <c r="S20" t="s" s="221">
-        <v>129</v>
-      </c>
-      <c r="T20" t="s" s="222">
-        <v>129</v>
-      </c>
-      <c r="U20" s="752"/>
+      <c r="E20" t="n" s="216">
+        <v>1900.0</v>
+      </c>
+      <c r="F20" t="n" s="217">
+        <v>1300.0</v>
+      </c>
+      <c r="G20" t="n" s="218">
+        <v>1300.0</v>
+      </c>
+      <c r="H20" t="n" s="219">
+        <v>400.0</v>
+      </c>
+      <c r="I20" s="738"/>
+      <c r="J20" s="739"/>
+      <c r="K20" t="n" s="220">
+        <v>4900.0</v>
+      </c>
+      <c r="L20" s="740"/>
+      <c r="M20" s="741"/>
+      <c r="N20" s="742"/>
+      <c r="O20" s="743"/>
+      <c r="P20" s="744"/>
+      <c r="Q20" s="745"/>
+      <c r="R20" s="746"/>
+      <c r="S20" t="n" s="221">
+        <v>4900.0</v>
+      </c>
+      <c r="T20" t="n" s="222">
+        <v>4900.0</v>
+      </c>
+      <c r="U20" s="747"/>
     </row>
     <row r="21">
-      <c r="A21" s="545"/>
-      <c r="B21" s="576"/>
-      <c r="C21" s="604"/>
+      <c r="A21" s="540"/>
+      <c r="B21" s="571"/>
+      <c r="C21" s="599"/>
       <c r="D21" t="s" s="223">
         <v>130</v>
       </c>
-      <c r="E21" t="s" s="224">
-        <v>131</v>
-      </c>
-      <c r="F21" t="s" s="225">
-        <v>132</v>
-      </c>
-      <c r="G21" t="s" s="226">
-        <v>132</v>
-      </c>
-      <c r="H21" t="s" s="227">
-        <v>81</v>
-      </c>
-      <c r="I21" s="753"/>
-      <c r="J21" s="754"/>
-      <c r="K21" t="s" s="228">
-        <v>45</v>
-      </c>
-      <c r="L21" s="755"/>
-      <c r="M21" s="756"/>
-      <c r="N21" s="757"/>
-      <c r="O21" s="758"/>
-      <c r="P21" s="759"/>
-      <c r="Q21" s="760"/>
-      <c r="R21" s="761"/>
-      <c r="S21" t="s" s="229">
-        <v>45</v>
-      </c>
-      <c r="T21" t="s" s="230">
-        <v>45</v>
-      </c>
-      <c r="U21" s="762"/>
+      <c r="E21" t="n" s="224">
+        <v>1400.0</v>
+      </c>
+      <c r="F21" t="n" s="225">
+        <v>1100.0</v>
+      </c>
+      <c r="G21" t="n" s="226">
+        <v>1100.0</v>
+      </c>
+      <c r="H21" t="n" s="227">
+        <v>200.0</v>
+      </c>
+      <c r="I21" s="748"/>
+      <c r="J21" s="749"/>
+      <c r="K21" t="n" s="228">
+        <v>3800.0</v>
+      </c>
+      <c r="L21" s="750"/>
+      <c r="M21" s="751"/>
+      <c r="N21" s="752"/>
+      <c r="O21" s="753"/>
+      <c r="P21" s="754"/>
+      <c r="Q21" s="755"/>
+      <c r="R21" s="756"/>
+      <c r="S21" t="n" s="229">
+        <v>3800.0</v>
+      </c>
+      <c r="T21" t="n" s="230">
+        <v>3800.0</v>
+      </c>
+      <c r="U21" s="757"/>
     </row>
     <row r="22">
-      <c r="A22" s="546"/>
-      <c r="B22" s="577"/>
-      <c r="C22" s="605"/>
+      <c r="A22" s="541"/>
+      <c r="B22" s="572"/>
+      <c r="C22" s="600"/>
       <c r="D22" t="s" s="231">
         <v>133</v>
       </c>
-      <c r="E22" t="s" s="232">
-        <v>134</v>
-      </c>
-      <c r="F22" t="s" s="233">
-        <v>135</v>
-      </c>
-      <c r="G22" t="s" s="234">
-        <v>135</v>
-      </c>
-      <c r="H22" t="s" s="235">
-        <v>123</v>
-      </c>
-      <c r="I22" s="763"/>
-      <c r="J22" s="764"/>
-      <c r="K22" t="s" s="236">
-        <v>66</v>
-      </c>
-      <c r="L22" s="765"/>
-      <c r="M22" s="766"/>
-      <c r="N22" s="767"/>
-      <c r="O22" s="768"/>
-      <c r="P22" s="769"/>
-      <c r="Q22" s="770"/>
-      <c r="R22" s="771"/>
-      <c r="S22" t="s" s="237">
-        <v>66</v>
-      </c>
-      <c r="T22" t="s" s="238">
-        <v>66</v>
-      </c>
-      <c r="U22" s="772"/>
+      <c r="E22" t="n" s="232">
+        <v>2800.0</v>
+      </c>
+      <c r="F22" t="n" s="233">
+        <v>2000.0</v>
+      </c>
+      <c r="G22" t="n" s="234">
+        <v>2000.0</v>
+      </c>
+      <c r="H22" t="n" s="235">
+        <v>1200.0</v>
+      </c>
+      <c r="I22" s="758"/>
+      <c r="J22" s="759"/>
+      <c r="K22" t="n" s="236">
+        <v>8000.0</v>
+      </c>
+      <c r="L22" s="760"/>
+      <c r="M22" s="761"/>
+      <c r="N22" s="762"/>
+      <c r="O22" s="763"/>
+      <c r="P22" s="764"/>
+      <c r="Q22" s="765"/>
+      <c r="R22" s="766"/>
+      <c r="S22" t="n" s="237">
+        <v>8000.0</v>
+      </c>
+      <c r="T22" t="n" s="238">
+        <v>8000.0</v>
+      </c>
+      <c r="U22" s="767"/>
     </row>
     <row r="23">
-      <c r="A23" s="547"/>
-      <c r="B23" s="578"/>
-      <c r="C23" s="606"/>
+      <c r="A23" s="542"/>
+      <c r="B23" s="573"/>
+      <c r="C23" s="601"/>
       <c r="D23" t="s" s="239">
         <v>136</v>
       </c>
-      <c r="E23" s="773"/>
-      <c r="F23" s="774"/>
-      <c r="G23" s="775"/>
-      <c r="H23" t="s" s="240">
-        <v>137</v>
-      </c>
-      <c r="I23" t="s" s="241">
-        <v>138</v>
-      </c>
-      <c r="J23" t="s" s="242">
-        <v>139</v>
-      </c>
-      <c r="K23" t="s" s="243">
-        <v>51</v>
-      </c>
-      <c r="L23" t="s" s="244">
-        <v>140</v>
-      </c>
-      <c r="M23" t="s" s="245">
-        <v>90</v>
-      </c>
-      <c r="N23" t="s" s="246">
-        <v>141</v>
-      </c>
-      <c r="O23" t="s" s="247">
-        <v>142</v>
-      </c>
-      <c r="P23" t="s" s="248">
-        <v>126</v>
-      </c>
-      <c r="Q23" t="s" s="249">
-        <v>51</v>
-      </c>
-      <c r="R23" t="s" s="250">
-        <v>143</v>
-      </c>
-      <c r="S23" t="s" s="251">
-        <v>144</v>
-      </c>
-      <c r="T23" t="s" s="252">
-        <v>144</v>
-      </c>
-      <c r="U23" s="776"/>
+      <c r="E23" s="768"/>
+      <c r="F23" s="769"/>
+      <c r="G23" s="770"/>
+      <c r="H23" t="n" s="240">
+        <v>10.0</v>
+      </c>
+      <c r="I23" t="n" s="241">
+        <v>990.0</v>
+      </c>
+      <c r="J23" t="n" s="242">
+        <v>4200.0</v>
+      </c>
+      <c r="K23" t="n" s="243">
+        <v>5200.0</v>
+      </c>
+      <c r="L23" t="n" s="244">
+        <v>7000.0</v>
+      </c>
+      <c r="M23" t="n" s="245">
+        <v>5800.0</v>
+      </c>
+      <c r="N23" t="n" s="246">
+        <v>6600.0</v>
+      </c>
+      <c r="O23" t="n" s="247">
+        <v>6700.0</v>
+      </c>
+      <c r="P23" t="n" s="248">
+        <v>3300.0</v>
+      </c>
+      <c r="Q23" t="n" s="249">
+        <v>5200.0</v>
+      </c>
+      <c r="R23" t="n" s="250">
+        <v>34600.0</v>
+      </c>
+      <c r="S23" t="n" s="251">
+        <v>39800.0</v>
+      </c>
+      <c r="T23" t="n" s="252">
+        <v>39800.0</v>
+      </c>
+      <c r="U23" s="771"/>
     </row>
     <row r="24">
-      <c r="A24" s="548"/>
-      <c r="B24" s="579"/>
-      <c r="C24" s="607"/>
+      <c r="A24" s="543"/>
+      <c r="B24" s="574"/>
+      <c r="C24" s="602"/>
       <c r="D24" t="s" s="253">
         <v>145</v>
       </c>
-      <c r="E24" s="777"/>
-      <c r="F24" s="778"/>
-      <c r="G24" s="779"/>
-      <c r="H24" t="s" s="254">
-        <v>146</v>
-      </c>
-      <c r="I24" t="s" s="255">
-        <v>81</v>
-      </c>
-      <c r="J24" t="s" s="256">
-        <v>121</v>
-      </c>
-      <c r="K24" t="s" s="257">
-        <v>123</v>
-      </c>
-      <c r="L24" t="s" s="258">
-        <v>88</v>
-      </c>
-      <c r="M24" t="s" s="259">
-        <v>131</v>
-      </c>
-      <c r="N24" t="s" s="260">
-        <v>82</v>
-      </c>
-      <c r="O24" t="s" s="261">
-        <v>88</v>
-      </c>
-      <c r="P24" t="s" s="262">
-        <v>147</v>
-      </c>
-      <c r="Q24" t="s" s="263">
-        <v>128</v>
-      </c>
-      <c r="R24" t="s" s="264">
-        <v>148</v>
-      </c>
-      <c r="S24" t="s" s="265">
-        <v>149</v>
-      </c>
-      <c r="T24" t="s" s="266">
-        <v>149</v>
-      </c>
-      <c r="U24" s="780"/>
+      <c r="E24" s="772"/>
+      <c r="F24" s="773"/>
+      <c r="G24" s="774"/>
+      <c r="H24" t="n" s="254">
+        <v>100.0</v>
+      </c>
+      <c r="I24" t="n" s="255">
+        <v>200.0</v>
+      </c>
+      <c r="J24" t="n" s="256">
+        <v>900.0</v>
+      </c>
+      <c r="K24" t="n" s="257">
+        <v>1200.0</v>
+      </c>
+      <c r="L24" t="n" s="258">
+        <v>1600.0</v>
+      </c>
+      <c r="M24" t="n" s="259">
+        <v>1400.0</v>
+      </c>
+      <c r="N24" t="n" s="260">
+        <v>1500.0</v>
+      </c>
+      <c r="O24" t="n" s="261">
+        <v>1600.0</v>
+      </c>
+      <c r="P24" t="n" s="262">
+        <v>800.0</v>
+      </c>
+      <c r="Q24" t="n" s="263">
+        <v>1300.0</v>
+      </c>
+      <c r="R24" t="n" s="264">
+        <v>8200.0</v>
+      </c>
+      <c r="S24" t="n" s="265">
+        <v>9400.0</v>
+      </c>
+      <c r="T24" t="n" s="266">
+        <v>9400.0</v>
+      </c>
+      <c r="U24" s="775"/>
     </row>
     <row r="25">
-      <c r="A25" s="549"/>
-      <c r="B25" s="580"/>
-      <c r="C25" s="608"/>
+      <c r="A25" s="544"/>
+      <c r="B25" s="575"/>
+      <c r="C25" s="603"/>
       <c r="D25" t="s" s="267">
         <v>150</v>
       </c>
-      <c r="E25" s="781"/>
-      <c r="F25" s="782"/>
-      <c r="G25" s="783"/>
-      <c r="H25" s="784"/>
-      <c r="I25" t="s" s="268">
-        <v>68</v>
-      </c>
-      <c r="J25" t="s" s="269">
-        <v>124</v>
-      </c>
-      <c r="K25" t="s" s="270">
-        <v>131</v>
-      </c>
-      <c r="L25" t="s" s="271">
-        <v>151</v>
-      </c>
-      <c r="M25" t="s" s="272">
-        <v>131</v>
-      </c>
-      <c r="N25" t="s" s="273">
-        <v>74</v>
-      </c>
-      <c r="O25" t="s" s="274">
-        <v>151</v>
-      </c>
-      <c r="P25" t="s" s="275">
-        <v>147</v>
-      </c>
-      <c r="Q25" t="s" s="276">
-        <v>131</v>
-      </c>
-      <c r="R25" t="s" s="277">
-        <v>152</v>
-      </c>
-      <c r="S25" t="s" s="278">
-        <v>153</v>
-      </c>
-      <c r="T25" t="s" s="279">
-        <v>153</v>
-      </c>
-      <c r="U25" s="785"/>
+      <c r="E25" s="776"/>
+      <c r="F25" s="777"/>
+      <c r="G25" s="778"/>
+      <c r="H25" s="779"/>
+      <c r="I25" t="n" s="268">
+        <v>400.0</v>
+      </c>
+      <c r="J25" t="n" s="269">
+        <v>1000.0</v>
+      </c>
+      <c r="K25" t="n" s="270">
+        <v>1400.0</v>
+      </c>
+      <c r="L25" t="n" s="271">
+        <v>1800.0</v>
+      </c>
+      <c r="M25" t="n" s="272">
+        <v>1400.0</v>
+      </c>
+      <c r="N25" t="n" s="273">
+        <v>1700.0</v>
+      </c>
+      <c r="O25" t="n" s="274">
+        <v>1800.0</v>
+      </c>
+      <c r="P25" t="n" s="275">
+        <v>800.0</v>
+      </c>
+      <c r="Q25" t="n" s="276">
+        <v>1400.0</v>
+      </c>
+      <c r="R25" t="n" s="277">
+        <v>8900.0</v>
+      </c>
+      <c r="S25" t="n" s="278">
+        <v>10300.0</v>
+      </c>
+      <c r="T25" t="n" s="279">
+        <v>10300.0</v>
+      </c>
+      <c r="U25" s="780"/>
     </row>
     <row r="26">
-      <c r="A26" s="550"/>
-      <c r="B26" s="581"/>
-      <c r="C26" s="609"/>
+      <c r="A26" s="545"/>
+      <c r="B26" s="576"/>
+      <c r="C26" s="604"/>
       <c r="D26" t="s" s="280">
         <v>154</v>
       </c>
-      <c r="E26" s="786"/>
-      <c r="F26" s="787"/>
-      <c r="G26" s="788"/>
-      <c r="H26" s="789"/>
-      <c r="I26" t="s" s="281">
-        <v>68</v>
-      </c>
-      <c r="J26" t="s" s="282">
-        <v>128</v>
-      </c>
-      <c r="K26" t="s" s="283">
-        <v>74</v>
-      </c>
-      <c r="L26" t="s" s="284">
-        <v>155</v>
-      </c>
-      <c r="M26" t="s" s="285">
-        <v>151</v>
-      </c>
-      <c r="N26" t="s" s="286">
-        <v>67</v>
-      </c>
-      <c r="O26" t="s" s="287">
-        <v>67</v>
-      </c>
-      <c r="P26" t="s" s="288">
-        <v>124</v>
-      </c>
-      <c r="Q26" t="s" s="289">
-        <v>74</v>
-      </c>
-      <c r="R26" t="s" s="290">
-        <v>156</v>
-      </c>
-      <c r="S26" t="s" s="291">
-        <v>157</v>
-      </c>
-      <c r="T26" t="s" s="292">
-        <v>157</v>
-      </c>
-      <c r="U26" s="790"/>
+      <c r="E26" s="781"/>
+      <c r="F26" s="782"/>
+      <c r="G26" s="783"/>
+      <c r="H26" s="784"/>
+      <c r="I26" t="n" s="281">
+        <v>400.0</v>
+      </c>
+      <c r="J26" t="n" s="282">
+        <v>1300.0</v>
+      </c>
+      <c r="K26" t="n" s="283">
+        <v>1700.0</v>
+      </c>
+      <c r="L26" t="n" s="284">
+        <v>2300.0</v>
+      </c>
+      <c r="M26" t="n" s="285">
+        <v>1800.0</v>
+      </c>
+      <c r="N26" t="n" s="286">
+        <v>2200.0</v>
+      </c>
+      <c r="O26" t="n" s="287">
+        <v>2200.0</v>
+      </c>
+      <c r="P26" t="n" s="288">
+        <v>1000.0</v>
+      </c>
+      <c r="Q26" t="n" s="289">
+        <v>1700.0</v>
+      </c>
+      <c r="R26" t="n" s="290">
+        <v>11200.0</v>
+      </c>
+      <c r="S26" t="n" s="291">
+        <v>12900.0</v>
+      </c>
+      <c r="T26" t="n" s="292">
+        <v>12900.0</v>
+      </c>
+      <c r="U26" s="785"/>
     </row>
     <row r="27">
-      <c r="A27" s="551"/>
-      <c r="B27" s="582"/>
-      <c r="C27" s="610"/>
+      <c r="A27" s="546"/>
+      <c r="B27" s="577"/>
+      <c r="C27" s="605"/>
       <c r="D27" t="s" s="293">
         <v>158</v>
       </c>
-      <c r="E27" s="791"/>
-      <c r="F27" s="792"/>
-      <c r="G27" s="793"/>
-      <c r="H27" s="794"/>
-      <c r="I27" t="s" s="294">
-        <v>117</v>
-      </c>
-      <c r="J27" t="s" s="295">
-        <v>117</v>
-      </c>
-      <c r="K27" t="s" s="296">
-        <v>159</v>
-      </c>
-      <c r="L27" t="s" s="297">
-        <v>123</v>
-      </c>
-      <c r="M27" t="s" s="298">
-        <v>132</v>
-      </c>
-      <c r="N27" t="s" s="299">
-        <v>132</v>
-      </c>
-      <c r="O27" t="s" s="300">
-        <v>82</v>
-      </c>
-      <c r="P27" t="s" s="301">
-        <v>121</v>
-      </c>
-      <c r="Q27" t="s" s="302">
-        <v>131</v>
-      </c>
-      <c r="R27" t="s" s="303">
-        <v>64</v>
-      </c>
-      <c r="S27" t="s" s="304">
-        <v>160</v>
-      </c>
-      <c r="T27" t="s" s="305">
-        <v>160</v>
-      </c>
-      <c r="U27" s="795"/>
+      <c r="E27" s="786"/>
+      <c r="F27" s="787"/>
+      <c r="G27" s="788"/>
+      <c r="H27" s="789"/>
+      <c r="I27" t="n" s="294">
+        <v>300.0</v>
+      </c>
+      <c r="J27" t="n" s="295">
+        <v>300.0</v>
+      </c>
+      <c r="K27" t="n" s="296">
+        <v>600.0</v>
+      </c>
+      <c r="L27" t="n" s="297">
+        <v>1200.0</v>
+      </c>
+      <c r="M27" t="n" s="298">
+        <v>1100.0</v>
+      </c>
+      <c r="N27" t="n" s="299">
+        <v>1100.0</v>
+      </c>
+      <c r="O27" t="n" s="300">
+        <v>1500.0</v>
+      </c>
+      <c r="P27" t="n" s="301">
+        <v>900.0</v>
+      </c>
+      <c r="Q27" t="n" s="302">
+        <v>1400.0</v>
+      </c>
+      <c r="R27" t="n" s="303">
+        <v>7200.0</v>
+      </c>
+      <c r="S27" t="n" s="304">
+        <v>7800.0</v>
+      </c>
+      <c r="T27" t="n" s="305">
+        <v>7800.0</v>
+      </c>
+      <c r="U27" s="790"/>
     </row>
     <row r="28">
-      <c r="A28" s="552"/>
-      <c r="B28" s="583"/>
-      <c r="C28" s="611"/>
+      <c r="A28" s="547"/>
+      <c r="B28" s="578"/>
+      <c r="C28" s="606"/>
       <c r="D28" t="s" s="306">
         <v>161</v>
       </c>
-      <c r="E28" s="796"/>
-      <c r="F28" s="797"/>
-      <c r="G28" s="798"/>
-      <c r="H28" t="s" s="307">
-        <v>137</v>
-      </c>
-      <c r="I28" t="s" s="308">
-        <v>162</v>
-      </c>
-      <c r="J28" t="s" s="309">
-        <v>123</v>
-      </c>
-      <c r="K28" t="s" s="310">
-        <v>74</v>
-      </c>
-      <c r="L28" t="s" s="311">
-        <v>91</v>
-      </c>
-      <c r="M28" t="s" s="312">
-        <v>163</v>
-      </c>
-      <c r="N28" t="s" s="313">
-        <v>65</v>
-      </c>
-      <c r="O28" t="s" s="314">
-        <v>164</v>
-      </c>
-      <c r="P28" t="s" s="315">
-        <v>131</v>
-      </c>
-      <c r="Q28" t="s" s="316">
-        <v>165</v>
-      </c>
-      <c r="R28" t="s" s="317">
-        <v>166</v>
-      </c>
-      <c r="S28" t="s" s="318">
-        <v>167</v>
-      </c>
-      <c r="T28" t="s" s="319">
-        <v>167</v>
-      </c>
-      <c r="U28" s="799"/>
+      <c r="E28" s="791"/>
+      <c r="F28" s="792"/>
+      <c r="G28" s="793"/>
+      <c r="H28" t="n" s="307">
+        <v>10.0</v>
+      </c>
+      <c r="I28" t="n" s="308">
+        <v>490.0</v>
+      </c>
+      <c r="J28" t="n" s="309">
+        <v>1200.0</v>
+      </c>
+      <c r="K28" t="n" s="310">
+        <v>1700.0</v>
+      </c>
+      <c r="L28" t="n" s="311">
+        <v>2900.0</v>
+      </c>
+      <c r="M28" t="n" s="312">
+        <v>2100.0</v>
+      </c>
+      <c r="N28" t="n" s="313">
+        <v>1900.0</v>
+      </c>
+      <c r="O28" t="n" s="314">
+        <v>2500.0</v>
+      </c>
+      <c r="P28" t="n" s="315">
+        <v>1400.0</v>
+      </c>
+      <c r="Q28" t="n" s="316">
+        <v>2400.0</v>
+      </c>
+      <c r="R28" t="n" s="317">
+        <v>13200.0</v>
+      </c>
+      <c r="S28" t="n" s="318">
+        <v>14900.0</v>
+      </c>
+      <c r="T28" t="n" s="319">
+        <v>14900.0</v>
+      </c>
+      <c r="U28" s="794"/>
     </row>
     <row r="29">
-      <c r="A29" s="553"/>
-      <c r="B29" s="584"/>
-      <c r="C29" s="612"/>
+      <c r="A29" s="548"/>
+      <c r="B29" s="579"/>
+      <c r="C29" s="607"/>
       <c r="D29" t="s" s="320">
         <v>168</v>
       </c>
-      <c r="E29" s="800"/>
-      <c r="F29" s="801"/>
-      <c r="G29" s="802"/>
-      <c r="H29" t="s" s="322">
-        <v>169</v>
-      </c>
-      <c r="I29" t="s" s="321">
-        <v>170</v>
-      </c>
-      <c r="J29" t="s" s="323">
-        <v>124</v>
-      </c>
-      <c r="K29" t="s" s="324">
-        <v>131</v>
-      </c>
-      <c r="L29" t="s" s="325">
-        <v>165</v>
-      </c>
-      <c r="M29" t="s" s="326">
-        <v>88</v>
-      </c>
-      <c r="N29" t="s" s="327">
-        <v>82</v>
-      </c>
-      <c r="O29" t="s" s="328">
-        <v>163</v>
-      </c>
-      <c r="P29" t="s" s="329">
-        <v>123</v>
-      </c>
-      <c r="Q29" t="s" s="330">
-        <v>65</v>
-      </c>
-      <c r="R29" t="s" s="331">
-        <v>171</v>
-      </c>
-      <c r="S29" t="s" s="332">
-        <v>172</v>
-      </c>
-      <c r="T29" t="s" s="333">
-        <v>172</v>
-      </c>
-      <c r="U29" s="803"/>
+      <c r="E29" s="795"/>
+      <c r="F29" s="796"/>
+      <c r="G29" s="797"/>
+      <c r="H29" t="n" s="322">
+        <v>5.0</v>
+      </c>
+      <c r="I29" t="n" s="321">
+        <v>395.0</v>
+      </c>
+      <c r="J29" t="n" s="323">
+        <v>1000.0</v>
+      </c>
+      <c r="K29" t="n" s="324">
+        <v>1400.0</v>
+      </c>
+      <c r="L29" t="n" s="325">
+        <v>2400.0</v>
+      </c>
+      <c r="M29" t="n" s="326">
+        <v>1600.0</v>
+      </c>
+      <c r="N29" t="n" s="327">
+        <v>1500.0</v>
+      </c>
+      <c r="O29" t="n" s="328">
+        <v>2100.0</v>
+      </c>
+      <c r="P29" t="n" s="329">
+        <v>1200.0</v>
+      </c>
+      <c r="Q29" t="n" s="330">
+        <v>1900.0</v>
+      </c>
+      <c r="R29" t="n" s="331">
+        <v>10700.0</v>
+      </c>
+      <c r="S29" t="n" s="332">
+        <v>12100.0</v>
+      </c>
+      <c r="T29" t="n" s="333">
+        <v>12100.0</v>
+      </c>
+      <c r="U29" s="798"/>
     </row>
     <row r="30">
-      <c r="A30" s="554"/>
-      <c r="B30" s="585"/>
-      <c r="C30" s="613"/>
+      <c r="A30" s="549"/>
+      <c r="B30" s="580"/>
+      <c r="C30" s="608"/>
       <c r="D30" t="s" s="334">
         <v>173</v>
       </c>
-      <c r="E30" s="804"/>
-      <c r="F30" s="805"/>
-      <c r="G30" s="806"/>
-      <c r="H30" t="s" s="335">
-        <v>174</v>
-      </c>
-      <c r="I30" t="s" s="336">
-        <v>175</v>
-      </c>
-      <c r="J30" t="s" s="337">
-        <v>163</v>
-      </c>
-      <c r="K30" t="s" s="338">
-        <v>91</v>
-      </c>
-      <c r="L30" t="s" s="339">
-        <v>176</v>
-      </c>
-      <c r="M30" t="s" s="340">
-        <v>114</v>
-      </c>
-      <c r="N30" t="s" s="341">
-        <v>134</v>
-      </c>
-      <c r="O30" t="s" s="342">
-        <v>45</v>
-      </c>
-      <c r="P30" t="s" s="343">
-        <v>67</v>
-      </c>
-      <c r="Q30" t="s" s="344">
-        <v>79</v>
-      </c>
-      <c r="R30" t="s" s="345">
-        <v>105</v>
-      </c>
-      <c r="S30" t="s" s="346">
-        <v>101</v>
-      </c>
-      <c r="T30" t="s" s="347">
-        <v>101</v>
-      </c>
-      <c r="U30" s="807"/>
+      <c r="E30" s="799"/>
+      <c r="F30" s="800"/>
+      <c r="G30" s="801"/>
+      <c r="H30" t="n" s="335">
+        <v>205.0</v>
+      </c>
+      <c r="I30" t="n" s="336">
+        <v>595.0</v>
+      </c>
+      <c r="J30" t="n" s="337">
+        <v>2100.0</v>
+      </c>
+      <c r="K30" t="n" s="338">
+        <v>2900.0</v>
+      </c>
+      <c r="L30" t="n" s="339">
+        <v>4600.0</v>
+      </c>
+      <c r="M30" t="n" s="340">
+        <v>3100.0</v>
+      </c>
+      <c r="N30" t="n" s="341">
+        <v>2800.0</v>
+      </c>
+      <c r="O30" t="n" s="342">
+        <v>3800.0</v>
+      </c>
+      <c r="P30" t="n" s="343">
+        <v>2200.0</v>
+      </c>
+      <c r="Q30" t="n" s="344">
+        <v>3700.0</v>
+      </c>
+      <c r="R30" t="n" s="345">
+        <v>20200.0</v>
+      </c>
+      <c r="S30" t="n" s="346">
+        <v>23100.0</v>
+      </c>
+      <c r="T30" t="n" s="347">
+        <v>23100.0</v>
+      </c>
+      <c r="U30" s="802"/>
     </row>
     <row r="31">
-      <c r="A31" s="555"/>
-      <c r="B31" s="586"/>
+      <c r="A31" s="550"/>
+      <c r="B31" s="581"/>
       <c r="C31" t="s" s="348">
         <v>96</v>
       </c>
       <c r="D31" s="349"/>
-      <c r="E31" t="s" s="350">
-        <v>69</v>
-      </c>
-      <c r="F31" t="s" s="351">
-        <v>76</v>
-      </c>
-      <c r="G31" t="s" s="352">
-        <v>153</v>
-      </c>
-      <c r="H31" t="s" s="353">
-        <v>177</v>
-      </c>
-      <c r="I31" t="s" s="354">
-        <v>178</v>
-      </c>
-      <c r="J31" t="s" s="355">
-        <v>179</v>
-      </c>
-      <c r="K31" t="s" s="356">
-        <v>180</v>
-      </c>
-      <c r="L31" t="s" s="357">
-        <v>181</v>
-      </c>
-      <c r="M31" t="s" s="358">
-        <v>182</v>
-      </c>
-      <c r="N31" t="s" s="359">
-        <v>183</v>
-      </c>
-      <c r="O31" t="s" s="360">
-        <v>184</v>
-      </c>
-      <c r="P31" t="s" s="361">
-        <v>185</v>
-      </c>
-      <c r="Q31" t="s" s="362">
-        <v>186</v>
-      </c>
-      <c r="R31" t="s" s="363">
-        <v>187</v>
-      </c>
-      <c r="S31" t="s" s="364">
-        <v>188</v>
-      </c>
-      <c r="T31" t="s" s="365">
-        <v>188</v>
-      </c>
-      <c r="U31" s="808"/>
+      <c r="E31" t="n" s="350">
+        <v>19700.0</v>
+      </c>
+      <c r="F31" t="n" s="351">
+        <v>14200.0</v>
+      </c>
+      <c r="G31" t="n" s="352">
+        <v>10300.0</v>
+      </c>
+      <c r="H31" t="n" s="353">
+        <v>7230.0</v>
+      </c>
+      <c r="I31" t="n" s="354">
+        <v>3770.0</v>
+      </c>
+      <c r="J31" t="n" s="355">
+        <v>12000.0</v>
+      </c>
+      <c r="K31" t="n" s="356">
+        <v>67200.0</v>
+      </c>
+      <c r="L31" t="n" s="357">
+        <v>23800.0</v>
+      </c>
+      <c r="M31" t="n" s="358">
+        <v>18300.0</v>
+      </c>
+      <c r="N31" t="n" s="359">
+        <v>19300.0</v>
+      </c>
+      <c r="O31" t="n" s="360">
+        <v>22200.0</v>
+      </c>
+      <c r="P31" t="n" s="361">
+        <v>11600.0</v>
+      </c>
+      <c r="Q31" t="n" s="362">
+        <v>19000.0</v>
+      </c>
+      <c r="R31" t="n" s="363">
+        <v>114200.0</v>
+      </c>
+      <c r="S31" t="n" s="364">
+        <v>181400.0</v>
+      </c>
+      <c r="T31" t="n" s="365">
+        <v>181400.0</v>
+      </c>
+      <c r="U31" s="803"/>
     </row>
     <row r="32">
-      <c r="A32" s="556"/>
+      <c r="A32" s="551"/>
       <c r="B32" t="s" s="366">
         <v>96</v>
       </c>
       <c r="C32" s="367"/>
       <c r="D32" s="368"/>
-      <c r="E32" t="s" s="369">
-        <v>189</v>
-      </c>
-      <c r="F32" t="s" s="370">
-        <v>190</v>
-      </c>
-      <c r="G32" t="s" s="371">
-        <v>191</v>
-      </c>
-      <c r="H32" t="s" s="372">
-        <v>192</v>
-      </c>
-      <c r="I32" t="s" s="373">
-        <v>193</v>
-      </c>
-      <c r="J32" t="s" s="374">
-        <v>194</v>
-      </c>
-      <c r="K32" t="s" s="375">
-        <v>195</v>
-      </c>
-      <c r="L32" t="s" s="376">
-        <v>196</v>
-      </c>
-      <c r="M32" t="s" s="377">
-        <v>197</v>
-      </c>
-      <c r="N32" t="s" s="378">
-        <v>198</v>
-      </c>
-      <c r="O32" t="s" s="379">
-        <v>199</v>
-      </c>
-      <c r="P32" t="s" s="380">
-        <v>200</v>
-      </c>
-      <c r="Q32" t="s" s="381">
-        <v>201</v>
-      </c>
-      <c r="R32" t="s" s="382">
-        <v>202</v>
-      </c>
-      <c r="S32" t="s" s="383">
-        <v>203</v>
-      </c>
-      <c r="T32" t="s" s="384">
-        <v>204</v>
+      <c r="E32" t="n" s="369">
+        <v>28400.0</v>
+      </c>
+      <c r="F32" t="n" s="370">
+        <v>26901.0</v>
+      </c>
+      <c r="G32" t="n" s="371">
+        <v>37200.0</v>
+      </c>
+      <c r="H32" t="n" s="372">
+        <v>31630.0</v>
+      </c>
+      <c r="I32" t="n" s="373">
+        <v>26870.0</v>
+      </c>
+      <c r="J32" t="n" s="374">
+        <v>26200.0</v>
+      </c>
+      <c r="K32" t="n" s="375">
+        <v>177201.0</v>
+      </c>
+      <c r="L32" t="n" s="376">
+        <v>39100.0</v>
+      </c>
+      <c r="M32" t="n" s="377">
+        <v>38900.0</v>
+      </c>
+      <c r="N32" t="n" s="378">
+        <v>39500.0</v>
+      </c>
+      <c r="O32" t="n" s="379">
+        <v>34700.0</v>
+      </c>
+      <c r="P32" t="n" s="380">
+        <v>16400.0</v>
+      </c>
+      <c r="Q32" t="n" s="381">
+        <v>28800.0</v>
+      </c>
+      <c r="R32" t="n" s="382">
+        <v>197400.0</v>
+      </c>
+      <c r="S32" t="n" s="383">
+        <v>374601.0</v>
+      </c>
+      <c r="T32" t="n" s="384">
+        <v>379401.0</v>
       </c>
       <c r="U32" t="s" s="385">
         <v>111</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="557"/>
-      <c r="B33" t="s" s="587">
+      <c r="A33" s="552"/>
+      <c r="B33" t="s" s="582">
         <v>289</v>
       </c>
-      <c r="C33" t="s" s="614">
+      <c r="C33" t="s" s="609">
         <v>37</v>
       </c>
       <c r="D33" t="s" s="386">
         <v>205</v>
       </c>
-      <c r="E33" t="s" s="387">
-        <v>206</v>
-      </c>
-      <c r="F33" t="s" s="388">
-        <v>207</v>
-      </c>
-      <c r="G33" t="s" s="389">
-        <v>208</v>
-      </c>
-      <c r="H33" s="809"/>
-      <c r="I33" s="810"/>
-      <c r="J33" t="s" s="390">
-        <v>209</v>
-      </c>
-      <c r="K33" t="s" s="391">
-        <v>210</v>
-      </c>
-      <c r="L33" t="s" s="392">
-        <v>211</v>
-      </c>
-      <c r="M33" t="s" s="393">
-        <v>212</v>
-      </c>
-      <c r="N33" t="s" s="394">
-        <v>213</v>
-      </c>
-      <c r="O33" t="s" s="395">
-        <v>214</v>
-      </c>
-      <c r="P33" t="s" s="396">
-        <v>82</v>
-      </c>
-      <c r="Q33" s="811"/>
-      <c r="R33" t="s" s="397">
-        <v>215</v>
-      </c>
-      <c r="S33" t="s" s="398">
-        <v>216</v>
-      </c>
-      <c r="T33" t="s" s="399">
-        <v>217</v>
-      </c>
-      <c r="U33" t="s" s="400">
-        <v>218</v>
+      <c r="E33" t="n" s="387">
+        <v>576.0</v>
+      </c>
+      <c r="F33" t="n" s="388">
+        <v>1040.0</v>
+      </c>
+      <c r="G33" t="n" s="389">
+        <v>398.0</v>
+      </c>
+      <c r="H33" s="804"/>
+      <c r="I33" s="805"/>
+      <c r="J33" t="n" s="390">
+        <v>1680.0</v>
+      </c>
+      <c r="K33" t="n" s="391">
+        <v>3694.0</v>
+      </c>
+      <c r="L33" t="n" s="392">
+        <v>1398.0</v>
+      </c>
+      <c r="M33" t="n" s="393">
+        <v>1282.0</v>
+      </c>
+      <c r="N33" t="n" s="394">
+        <v>1080.0</v>
+      </c>
+      <c r="O33" t="n" s="395">
+        <v>1070.0</v>
+      </c>
+      <c r="P33" t="n" s="396">
+        <v>1500.0</v>
+      </c>
+      <c r="Q33" s="806"/>
+      <c r="R33" t="n" s="397">
+        <v>6330.0</v>
+      </c>
+      <c r="S33" t="n" s="398">
+        <v>10024.0</v>
+      </c>
+      <c r="T33" t="n" s="399">
+        <v>9906.0</v>
+      </c>
+      <c r="U33" t="n" s="1">
+        <v>118.0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="558"/>
-      <c r="B34" s="588"/>
-      <c r="C34" s="615"/>
-      <c r="D34" t="s" s="401">
+      <c r="A34" s="553"/>
+      <c r="B34" s="583"/>
+      <c r="C34" s="610"/>
+      <c r="D34" t="s" s="400">
         <v>219</v>
       </c>
-      <c r="E34" s="812"/>
-      <c r="F34" s="813"/>
-      <c r="G34" s="814"/>
-      <c r="H34" s="815"/>
-      <c r="I34" s="816"/>
-      <c r="J34" s="817"/>
-      <c r="K34" s="818"/>
-      <c r="L34" s="819"/>
-      <c r="M34" s="820"/>
-      <c r="N34" s="821"/>
-      <c r="O34" s="822"/>
-      <c r="P34" s="823"/>
-      <c r="Q34" s="824"/>
-      <c r="R34" s="825"/>
-      <c r="S34" s="826"/>
-      <c r="T34" s="827"/>
-      <c r="U34" s="828"/>
+      <c r="E34" s="807"/>
+      <c r="F34" s="808"/>
+      <c r="G34" s="809"/>
+      <c r="H34" s="810"/>
+      <c r="I34" s="811"/>
+      <c r="J34" s="812"/>
+      <c r="K34" s="813"/>
+      <c r="L34" s="814"/>
+      <c r="M34" s="815"/>
+      <c r="N34" s="816"/>
+      <c r="O34" s="817"/>
+      <c r="P34" s="818"/>
+      <c r="Q34" s="819"/>
+      <c r="R34" s="820"/>
+      <c r="S34" s="821"/>
+      <c r="T34" s="822"/>
+      <c r="U34" s="823"/>
     </row>
     <row r="35">
-      <c r="A35" s="559"/>
-      <c r="B35" s="589"/>
-      <c r="C35" s="616"/>
-      <c r="D35" t="s" s="402">
+      <c r="A35" s="554"/>
+      <c r="B35" s="584"/>
+      <c r="C35" s="611"/>
+      <c r="D35" t="s" s="401">
         <v>220</v>
       </c>
-      <c r="E35" t="s" s="403">
-        <v>221</v>
-      </c>
-      <c r="F35" t="s" s="404">
-        <v>222</v>
-      </c>
-      <c r="G35" t="s" s="405">
-        <v>223</v>
-      </c>
-      <c r="H35" t="s" s="406">
-        <v>224</v>
-      </c>
-      <c r="I35" t="s" s="407">
-        <v>90</v>
-      </c>
-      <c r="J35" t="s" s="408">
-        <v>44</v>
-      </c>
-      <c r="K35" t="s" s="409">
-        <v>225</v>
-      </c>
-      <c r="L35" t="s" s="410">
-        <v>226</v>
-      </c>
-      <c r="M35" t="s" s="411">
-        <v>227</v>
-      </c>
-      <c r="N35" t="s" s="412">
-        <v>228</v>
-      </c>
-      <c r="O35" t="s" s="413">
-        <v>229</v>
-      </c>
-      <c r="P35" t="s" s="414">
-        <v>230</v>
-      </c>
-      <c r="Q35" t="s" s="415">
-        <v>231</v>
-      </c>
-      <c r="R35" t="s" s="416">
-        <v>232</v>
-      </c>
-      <c r="S35" t="s" s="417">
-        <v>233</v>
-      </c>
-      <c r="T35" t="s" s="418">
-        <v>233</v>
-      </c>
-      <c r="U35" s="829"/>
+      <c r="E35" t="n" s="402">
+        <v>6596.0</v>
+      </c>
+      <c r="F35" t="n" s="403">
+        <v>11130.0</v>
+      </c>
+      <c r="G35" t="n" s="404">
+        <v>2562.0</v>
+      </c>
+      <c r="H35" t="n" s="405">
+        <v>3658.0</v>
+      </c>
+      <c r="I35" t="n" s="406">
+        <v>5800.0</v>
+      </c>
+      <c r="J35" t="n" s="407">
+        <v>2700.0</v>
+      </c>
+      <c r="K35" t="n" s="408">
+        <v>32446.0</v>
+      </c>
+      <c r="L35" t="n" s="409">
+        <v>3284.0</v>
+      </c>
+      <c r="M35" t="n" s="410">
+        <v>4292.0</v>
+      </c>
+      <c r="N35" t="n" s="411">
+        <v>2430.0</v>
+      </c>
+      <c r="O35" t="n" s="412">
+        <v>8636.0</v>
+      </c>
+      <c r="P35" t="n" s="413">
+        <v>7978.0</v>
+      </c>
+      <c r="Q35" t="n" s="414">
+        <v>9364.0</v>
+      </c>
+      <c r="R35" t="n" s="415">
+        <v>35984.0</v>
+      </c>
+      <c r="S35" t="n" s="416">
+        <v>68430.0</v>
+      </c>
+      <c r="T35" t="n" s="417">
+        <v>68430.0</v>
+      </c>
+      <c r="U35" s="824"/>
     </row>
     <row r="36">
-      <c r="A36" s="560"/>
-      <c r="B36" s="590"/>
-      <c r="C36" s="617"/>
-      <c r="D36" t="s" s="419">
+      <c r="A36" s="555"/>
+      <c r="B36" s="585"/>
+      <c r="C36" s="612"/>
+      <c r="D36" t="s" s="418">
         <v>234</v>
       </c>
-      <c r="E36" s="830"/>
-      <c r="F36" s="831"/>
-      <c r="G36" s="832"/>
-      <c r="H36" s="833"/>
-      <c r="I36" s="834"/>
-      <c r="J36" s="835"/>
-      <c r="K36" s="836"/>
-      <c r="L36" s="837"/>
-      <c r="M36" s="838"/>
-      <c r="N36" s="839"/>
-      <c r="O36" s="840"/>
-      <c r="P36" s="841"/>
-      <c r="Q36" s="842"/>
-      <c r="R36" s="843"/>
-      <c r="S36" s="844"/>
-      <c r="T36" s="845"/>
-      <c r="U36" s="846"/>
+      <c r="E36" s="825"/>
+      <c r="F36" s="826"/>
+      <c r="G36" s="827"/>
+      <c r="H36" s="828"/>
+      <c r="I36" s="829"/>
+      <c r="J36" s="830"/>
+      <c r="K36" s="831"/>
+      <c r="L36" s="832"/>
+      <c r="M36" s="833"/>
+      <c r="N36" s="834"/>
+      <c r="O36" s="835"/>
+      <c r="P36" s="836"/>
+      <c r="Q36" s="837"/>
+      <c r="R36" s="838"/>
+      <c r="S36" s="839"/>
+      <c r="T36" s="840"/>
+      <c r="U36" s="841"/>
     </row>
     <row r="37">
-      <c r="A37" s="561"/>
-      <c r="B37" s="591"/>
-      <c r="C37" s="618"/>
-      <c r="D37" t="s" s="420">
+      <c r="A37" s="556"/>
+      <c r="B37" s="586"/>
+      <c r="C37" s="613"/>
+      <c r="D37" t="s" s="419">
         <v>235</v>
       </c>
-      <c r="E37" t="s" s="421">
-        <v>67</v>
-      </c>
-      <c r="F37" t="s" s="422">
-        <v>67</v>
-      </c>
-      <c r="G37" t="s" s="423">
-        <v>236</v>
-      </c>
-      <c r="H37" s="847"/>
-      <c r="I37" s="848"/>
-      <c r="J37" s="849"/>
-      <c r="K37" t="s" s="424">
-        <v>237</v>
-      </c>
-      <c r="L37" s="850"/>
-      <c r="M37" s="851"/>
-      <c r="N37" s="852"/>
-      <c r="O37" s="853"/>
-      <c r="P37" s="854"/>
-      <c r="Q37" s="855"/>
-      <c r="R37" s="856"/>
-      <c r="S37" t="s" s="425">
-        <v>237</v>
-      </c>
-      <c r="T37" t="s" s="426">
-        <v>237</v>
-      </c>
-      <c r="U37" s="857"/>
+      <c r="E37" t="n" s="420">
+        <v>2200.0</v>
+      </c>
+      <c r="F37" t="n" s="421">
+        <v>2200.0</v>
+      </c>
+      <c r="G37" t="n" s="422">
+        <v>1399.0</v>
+      </c>
+      <c r="H37" s="842"/>
+      <c r="I37" s="843"/>
+      <c r="J37" s="844"/>
+      <c r="K37" t="n" s="423">
+        <v>5799.0</v>
+      </c>
+      <c r="L37" s="845"/>
+      <c r="M37" s="846"/>
+      <c r="N37" s="847"/>
+      <c r="O37" s="848"/>
+      <c r="P37" s="849"/>
+      <c r="Q37" s="850"/>
+      <c r="R37" s="851"/>
+      <c r="S37" t="n" s="424">
+        <v>5799.0</v>
+      </c>
+      <c r="T37" t="n" s="425">
+        <v>5799.0</v>
+      </c>
+      <c r="U37" s="852"/>
     </row>
     <row r="38">
-      <c r="A38" s="562"/>
-      <c r="B38" s="592"/>
-      <c r="C38" s="619"/>
-      <c r="D38" t="s" s="427">
+      <c r="A38" s="557"/>
+      <c r="B38" s="587"/>
+      <c r="C38" s="614"/>
+      <c r="D38" t="s" s="426">
         <v>238</v>
       </c>
-      <c r="E38" s="858"/>
-      <c r="F38" s="859"/>
-      <c r="G38" s="860"/>
-      <c r="H38" s="861"/>
-      <c r="I38" s="862"/>
-      <c r="J38" s="863"/>
-      <c r="K38" s="864"/>
-      <c r="L38" s="865"/>
-      <c r="M38" s="866"/>
-      <c r="N38" s="867"/>
-      <c r="O38" s="868"/>
-      <c r="P38" s="869"/>
-      <c r="Q38" s="870"/>
-      <c r="R38" s="871"/>
-      <c r="S38" s="872"/>
-      <c r="T38" s="873"/>
-      <c r="U38" s="874"/>
+      <c r="E38" s="853"/>
+      <c r="F38" s="854"/>
+      <c r="G38" s="855"/>
+      <c r="H38" s="856"/>
+      <c r="I38" s="857"/>
+      <c r="J38" s="858"/>
+      <c r="K38" s="859"/>
+      <c r="L38" s="860"/>
+      <c r="M38" s="861"/>
+      <c r="N38" s="862"/>
+      <c r="O38" s="863"/>
+      <c r="P38" s="864"/>
+      <c r="Q38" s="865"/>
+      <c r="R38" s="866"/>
+      <c r="S38" s="867"/>
+      <c r="T38" s="868"/>
+      <c r="U38" s="869"/>
     </row>
     <row r="39">
-      <c r="A39" s="563"/>
-      <c r="B39" s="593"/>
-      <c r="C39" t="s" s="428">
+      <c r="A39" s="558"/>
+      <c r="B39" s="588"/>
+      <c r="C39" t="s" s="427">
         <v>96</v>
       </c>
-      <c r="D39" s="429"/>
-      <c r="E39" t="s" s="430">
-        <v>239</v>
-      </c>
-      <c r="F39" t="s" s="431">
-        <v>240</v>
-      </c>
-      <c r="G39" t="s" s="432">
-        <v>241</v>
-      </c>
-      <c r="H39" t="s" s="433">
-        <v>224</v>
-      </c>
-      <c r="I39" t="s" s="434">
-        <v>90</v>
-      </c>
-      <c r="J39" t="s" s="435">
-        <v>242</v>
-      </c>
-      <c r="K39" t="s" s="436">
-        <v>243</v>
-      </c>
-      <c r="L39" t="s" s="437">
-        <v>244</v>
-      </c>
-      <c r="M39" t="s" s="438">
-        <v>245</v>
-      </c>
-      <c r="N39" t="s" s="439">
-        <v>246</v>
-      </c>
-      <c r="O39" t="s" s="440">
-        <v>247</v>
-      </c>
-      <c r="P39" t="s" s="441">
-        <v>248</v>
-      </c>
-      <c r="Q39" t="s" s="442">
-        <v>231</v>
-      </c>
-      <c r="R39" t="s" s="443">
-        <v>249</v>
-      </c>
-      <c r="S39" t="s" s="444">
-        <v>250</v>
-      </c>
-      <c r="T39" t="s" s="445">
-        <v>251</v>
-      </c>
-      <c r="U39" t="s" s="446">
-        <v>218</v>
+      <c r="D39" s="428"/>
+      <c r="E39" t="n" s="429">
+        <v>9372.0</v>
+      </c>
+      <c r="F39" t="n" s="430">
+        <v>14370.0</v>
+      </c>
+      <c r="G39" t="n" s="431">
+        <v>4359.0</v>
+      </c>
+      <c r="H39" t="n" s="432">
+        <v>3658.0</v>
+      </c>
+      <c r="I39" t="n" s="433">
+        <v>5800.0</v>
+      </c>
+      <c r="J39" t="n" s="434">
+        <v>4380.0</v>
+      </c>
+      <c r="K39" t="n" s="435">
+        <v>41939.0</v>
+      </c>
+      <c r="L39" t="n" s="436">
+        <v>4682.0</v>
+      </c>
+      <c r="M39" t="n" s="437">
+        <v>5574.0</v>
+      </c>
+      <c r="N39" t="n" s="438">
+        <v>3510.0</v>
+      </c>
+      <c r="O39" t="n" s="439">
+        <v>9706.0</v>
+      </c>
+      <c r="P39" t="n" s="440">
+        <v>9478.0</v>
+      </c>
+      <c r="Q39" t="n" s="441">
+        <v>9364.0</v>
+      </c>
+      <c r="R39" t="n" s="442">
+        <v>42314.0</v>
+      </c>
+      <c r="S39" t="n" s="443">
+        <v>84253.0</v>
+      </c>
+      <c r="T39" t="n" s="444">
+        <v>84135.0</v>
+      </c>
+      <c r="U39" t="n" s="1">
+        <v>118.0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="564"/>
-      <c r="B40" t="s" s="447">
+      <c r="A40" s="559"/>
+      <c r="B40" t="s" s="445">
         <v>96</v>
       </c>
-      <c r="C40" s="448"/>
-      <c r="D40" s="449"/>
-      <c r="E40" t="s" s="450">
-        <v>239</v>
-      </c>
-      <c r="F40" t="s" s="451">
-        <v>240</v>
-      </c>
-      <c r="G40" t="s" s="452">
-        <v>241</v>
-      </c>
-      <c r="H40" t="s" s="453">
-        <v>224</v>
-      </c>
-      <c r="I40" t="s" s="454">
-        <v>90</v>
-      </c>
-      <c r="J40" t="s" s="455">
-        <v>242</v>
-      </c>
-      <c r="K40" t="s" s="456">
-        <v>243</v>
-      </c>
-      <c r="L40" t="s" s="457">
-        <v>244</v>
-      </c>
-      <c r="M40" t="s" s="458">
-        <v>245</v>
-      </c>
-      <c r="N40" t="s" s="459">
-        <v>246</v>
-      </c>
-      <c r="O40" t="s" s="460">
-        <v>247</v>
-      </c>
-      <c r="P40" t="s" s="461">
-        <v>248</v>
-      </c>
-      <c r="Q40" t="s" s="462">
-        <v>231</v>
-      </c>
-      <c r="R40" t="s" s="463">
-        <v>249</v>
-      </c>
-      <c r="S40" t="s" s="464">
-        <v>250</v>
-      </c>
-      <c r="T40" t="s" s="465">
-        <v>251</v>
-      </c>
-      <c r="U40" t="s" s="466">
-        <v>218</v>
+      <c r="C40" s="446"/>
+      <c r="D40" s="447"/>
+      <c r="E40" t="n" s="448">
+        <v>9372.0</v>
+      </c>
+      <c r="F40" t="n" s="449">
+        <v>14370.0</v>
+      </c>
+      <c r="G40" t="n" s="450">
+        <v>4359.0</v>
+      </c>
+      <c r="H40" t="n" s="451">
+        <v>3658.0</v>
+      </c>
+      <c r="I40" t="n" s="452">
+        <v>5800.0</v>
+      </c>
+      <c r="J40" t="n" s="453">
+        <v>4380.0</v>
+      </c>
+      <c r="K40" t="n" s="454">
+        <v>41939.0</v>
+      </c>
+      <c r="L40" t="n" s="455">
+        <v>4682.0</v>
+      </c>
+      <c r="M40" t="n" s="456">
+        <v>5574.0</v>
+      </c>
+      <c r="N40" t="n" s="457">
+        <v>3510.0</v>
+      </c>
+      <c r="O40" t="n" s="458">
+        <v>9706.0</v>
+      </c>
+      <c r="P40" t="n" s="459">
+        <v>9478.0</v>
+      </c>
+      <c r="Q40" t="n" s="460">
+        <v>9364.0</v>
+      </c>
+      <c r="R40" t="n" s="461">
+        <v>42314.0</v>
+      </c>
+      <c r="S40" t="n" s="462">
+        <v>84253.0</v>
+      </c>
+      <c r="T40" t="n" s="463">
+        <v>84135.0</v>
+      </c>
+      <c r="U40" t="n" s="1">
+        <v>118.0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="467">
+      <c r="A41" t="s" s="464">
         <v>252</v>
       </c>
-      <c r="B41" s="468"/>
-      <c r="C41" s="469"/>
-      <c r="D41" s="470"/>
-      <c r="E41" t="s" s="475">
-        <v>253</v>
-      </c>
-      <c r="F41" t="s" s="476">
-        <v>254</v>
-      </c>
-      <c r="G41" t="s" s="477">
-        <v>255</v>
-      </c>
-      <c r="H41" t="s" s="478">
-        <v>256</v>
-      </c>
-      <c r="I41" t="s" s="479">
-        <v>257</v>
-      </c>
-      <c r="J41" t="s" s="480">
-        <v>258</v>
-      </c>
-      <c r="K41" t="s" s="481">
-        <v>259</v>
-      </c>
-      <c r="L41" t="s" s="482">
-        <v>260</v>
-      </c>
-      <c r="M41" t="s" s="483">
-        <v>261</v>
-      </c>
-      <c r="N41" t="s" s="484">
-        <v>262</v>
-      </c>
-      <c r="O41" t="s" s="485">
-        <v>263</v>
-      </c>
-      <c r="P41" t="s" s="486">
-        <v>264</v>
-      </c>
-      <c r="Q41" t="s" s="487">
-        <v>265</v>
-      </c>
-      <c r="R41" t="s" s="488">
-        <v>266</v>
-      </c>
-      <c r="S41" t="s" s="489">
-        <v>267</v>
-      </c>
-      <c r="T41" t="s" s="490">
-        <v>268</v>
-      </c>
-      <c r="U41" t="s" s="491">
+      <c r="B41" s="465"/>
+      <c r="C41" s="466"/>
+      <c r="D41" s="467"/>
+      <c r="E41" t="n" s="472">
+        <v>37772.0</v>
+      </c>
+      <c r="F41" t="n" s="473">
+        <v>41271.0</v>
+      </c>
+      <c r="G41" t="n" s="474">
+        <v>41559.0</v>
+      </c>
+      <c r="H41" t="n" s="475">
+        <v>35288.0</v>
+      </c>
+      <c r="I41" t="n" s="476">
+        <v>32670.0</v>
+      </c>
+      <c r="J41" t="n" s="477">
+        <v>30580.0</v>
+      </c>
+      <c r="K41" t="n" s="478">
+        <v>219140.0</v>
+      </c>
+      <c r="L41" t="n" s="479">
+        <v>43782.0</v>
+      </c>
+      <c r="M41" t="n" s="480">
+        <v>44474.0</v>
+      </c>
+      <c r="N41" t="n" s="481">
+        <v>43010.0</v>
+      </c>
+      <c r="O41" t="n" s="482">
+        <v>44406.0</v>
+      </c>
+      <c r="P41" t="n" s="483">
+        <v>25878.0</v>
+      </c>
+      <c r="Q41" t="n" s="484">
+        <v>38164.0</v>
+      </c>
+      <c r="R41" t="n" s="485">
+        <v>239714.0</v>
+      </c>
+      <c r="S41" t="n" s="486">
+        <v>458854.0</v>
+      </c>
+      <c r="T41" t="n" s="487">
+        <v>463536.0</v>
+      </c>
+      <c r="U41" t="s" s="488">
         <v>269</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="471"/>
-      <c r="B42" s="472"/>
-      <c r="C42" s="473"/>
-      <c r="D42" s="474"/>
-      <c r="E42" t="s" s="492">
-        <v>270</v>
-      </c>
-      <c r="F42" t="s" s="493">
-        <v>271</v>
-      </c>
-      <c r="G42" t="s" s="494">
-        <v>272</v>
-      </c>
-      <c r="H42" t="s" s="495">
-        <v>273</v>
-      </c>
-      <c r="I42" t="s" s="496">
-        <v>274</v>
-      </c>
-      <c r="J42" t="s" s="497">
-        <v>275</v>
-      </c>
-      <c r="K42" t="s" s="498">
-        <v>276</v>
-      </c>
-      <c r="L42" t="s" s="499">
-        <v>277</v>
-      </c>
-      <c r="M42" t="s" s="500">
-        <v>278</v>
-      </c>
-      <c r="N42" t="s" s="501">
-        <v>279</v>
-      </c>
-      <c r="O42" t="s" s="502">
-        <v>280</v>
-      </c>
-      <c r="P42" t="s" s="503">
-        <v>281</v>
-      </c>
-      <c r="Q42" t="s" s="504">
-        <v>282</v>
-      </c>
-      <c r="R42" t="s" s="505">
-        <v>283</v>
-      </c>
-      <c r="S42" t="s" s="506">
-        <v>284</v>
-      </c>
-      <c r="T42" t="s" s="507">
-        <v>285</v>
-      </c>
-      <c r="U42" t="s" s="508">
+      <c r="A42" s="468"/>
+      <c r="B42" s="469"/>
+      <c r="C42" s="470"/>
+      <c r="D42" s="471"/>
+      <c r="E42" t="n" s="489">
+        <v>1889.0</v>
+      </c>
+      <c r="F42" t="n" s="490">
+        <v>1876.0</v>
+      </c>
+      <c r="G42" t="n" s="491">
+        <v>2078.0</v>
+      </c>
+      <c r="H42" t="n" s="492">
+        <v>1764.0</v>
+      </c>
+      <c r="I42" t="n" s="493">
+        <v>1556.0</v>
+      </c>
+      <c r="J42" t="n" s="494">
+        <v>1456.0</v>
+      </c>
+      <c r="K42" t="n" s="495">
+        <v>1767.0</v>
+      </c>
+      <c r="L42" t="n" s="496">
+        <v>1990.0</v>
+      </c>
+      <c r="M42" t="n" s="497">
+        <v>2022.0</v>
+      </c>
+      <c r="N42" t="n" s="498">
+        <v>2048.0</v>
+      </c>
+      <c r="O42" t="n" s="499">
+        <v>1931.0</v>
+      </c>
+      <c r="P42" t="n" s="500">
+        <v>1848.0</v>
+      </c>
+      <c r="Q42" t="n" s="501">
+        <v>1908.0</v>
+      </c>
+      <c r="R42" t="n" s="502">
+        <v>1965.0</v>
+      </c>
+      <c r="S42" t="n" s="503">
+        <v>1865.0</v>
+      </c>
+      <c r="T42" t="n" s="504">
+        <v>1869.0</v>
+      </c>
+      <c r="U42" t="s" s="1">
         <v>33</v>
       </c>
     </row>
